--- a/trackers/Dataset Tracker - Cleaned.xlsx
+++ b/trackers/Dataset Tracker - Cleaned.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25103"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="2270" documentId="11_0C93C245C223B7608B0E49F03172A7282C73F5DA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1879D72-B193-42FD-AC61-82E72756098D}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gurdeep/Documents/tb2/DSMP/G32-Butterfly-Data/trackers/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD6E170-50F9-4848-AC16-FB1E01B88041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -49,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>README</t>
   </si>
@@ -134,16 +139,28 @@
     <t>Notebook Filepath</t>
   </si>
   <si>
-    <t>bristol_places,csv</t>
-  </si>
-  <si>
-    <t>DSMP/Datasets/Cleaned/Population Dataset/ Bristol Places Dataset/ bristol_places.xls</t>
-  </si>
-  <si>
     <t>DSMP/Datasets/Cleaned/Population Dataset/ Bristol Places Dataset/ Data Cleaning fro Bristol Places.ipynb</t>
   </si>
   <si>
     <t>All null values have been removed. Only relevant ccolumns are present and have been renamed to the standard column name format decided by the group.</t>
+  </si>
+  <si>
+    <t>bristol_places.csv</t>
+  </si>
+  <si>
+    <t>Licensed vehicles by postcode district and body type</t>
+  </si>
+  <si>
+    <t>DSMP/Datasets/Cleaned/Population Dataset/Bristol Places Dataset/ bristol_places.xls</t>
+  </si>
+  <si>
+    <t>DSMP/Datasets/Cleaned/Vehicles Dataset/Licensed Vehicles/licensed_vehicles_by_postcode_district_and_body_type.csv</t>
+  </si>
+  <si>
+    <t>notebooks/preprocessing/Preprocessing - Licensed vehicles by postcode district and body type.ipynb</t>
+  </si>
+  <si>
+    <t>Quarters were along columns, changed that to rows. -1 values in count columns mean that the data is missing and 0 means that count was insignificant (denoted by 'c' in oroginal raw dataset).</t>
   </si>
 </sst>
 </file>
@@ -153,7 +170,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0;[Red]#,##0"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,6 +273,30 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -325,7 +366,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -578,11 +619,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -621,9 +677,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -643,7 +696,108 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -671,107 +825,32 @@
     <xf numFmtId="0" fontId="7" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1103,52 +1182,52 @@
   <dimension ref="A1:S71"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="V32" sqref="V32"/>
+      <selection activeCell="J55" sqref="J55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="43"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="25"/>
     </row>
     <row r="2" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A2" s="44"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="46"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="28"/>
     </row>
     <row r="3" spans="1:18" ht="18.75" customHeight="1">
       <c r="A3" s="1"/>
@@ -1171,68 +1250,68 @@
       <c r="R3" s="1"/>
     </row>
     <row r="4" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="51"/>
-      <c r="P4" s="51"/>
-      <c r="Q4" s="51"/>
-      <c r="R4" s="52"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="34"/>
     </row>
     <row r="5" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="55"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="37"/>
     </row>
     <row r="6" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A6" s="56"/>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="57"/>
-      <c r="N6" s="57"/>
-      <c r="O6" s="57"/>
-      <c r="P6" s="57"/>
-      <c r="Q6" s="57"/>
-      <c r="R6" s="58"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="39"/>
+      <c r="R6" s="40"/>
     </row>
     <row r="7" spans="1:18" ht="18.75" customHeight="1">
       <c r="A7" s="2"/>
@@ -1255,328 +1334,328 @@
       <c r="R7" s="2"/>
     </row>
     <row r="8" spans="1:18" ht="23.25" customHeight="1">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="49"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="31"/>
     </row>
     <row r="9" spans="1:18" ht="15" customHeight="1">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="60"/>
-      <c r="M9" s="60"/>
-      <c r="N9" s="60"/>
-      <c r="O9" s="60"/>
-      <c r="P9" s="60"/>
-      <c r="Q9" s="60"/>
-      <c r="R9" s="61"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="42"/>
+      <c r="R9" s="43"/>
     </row>
     <row r="10" spans="1:18" ht="15" customHeight="1">
-      <c r="A10" s="62"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="63"/>
-      <c r="K10" s="63"/>
-      <c r="L10" s="63"/>
-      <c r="M10" s="63"/>
-      <c r="N10" s="63"/>
-      <c r="O10" s="63"/>
-      <c r="P10" s="63"/>
-      <c r="Q10" s="63"/>
-      <c r="R10" s="64"/>
+      <c r="A10" s="44"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="45"/>
+      <c r="P10" s="45"/>
+      <c r="Q10" s="45"/>
+      <c r="R10" s="46"/>
     </row>
     <row r="11" spans="1:18" ht="15" customHeight="1">
-      <c r="A11" s="62"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="63"/>
-      <c r="L11" s="63"/>
-      <c r="M11" s="63"/>
-      <c r="N11" s="63"/>
-      <c r="O11" s="63"/>
-      <c r="P11" s="63"/>
-      <c r="Q11" s="63"/>
-      <c r="R11" s="64"/>
+      <c r="A11" s="44"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="45"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="45"/>
+      <c r="Q11" s="45"/>
+      <c r="R11" s="46"/>
     </row>
     <row r="12" spans="1:18" ht="15" customHeight="1">
-      <c r="A12" s="62"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="63"/>
-      <c r="L12" s="63"/>
-      <c r="M12" s="63"/>
-      <c r="N12" s="63"/>
-      <c r="O12" s="63"/>
-      <c r="P12" s="63"/>
-      <c r="Q12" s="63"/>
-      <c r="R12" s="64"/>
+      <c r="A12" s="44"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="45"/>
+      <c r="O12" s="45"/>
+      <c r="P12" s="45"/>
+      <c r="Q12" s="45"/>
+      <c r="R12" s="46"/>
     </row>
     <row r="13" spans="1:18" ht="15" customHeight="1">
-      <c r="A13" s="62"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="63"/>
-      <c r="O13" s="63"/>
-      <c r="P13" s="63"/>
-      <c r="Q13" s="63"/>
-      <c r="R13" s="64"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="46"/>
     </row>
     <row r="14" spans="1:18" ht="15" customHeight="1">
-      <c r="A14" s="62"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="63"/>
-      <c r="L14" s="63"/>
-      <c r="M14" s="63"/>
-      <c r="N14" s="63"/>
-      <c r="O14" s="63"/>
-      <c r="P14" s="63"/>
-      <c r="Q14" s="63"/>
-      <c r="R14" s="64"/>
+      <c r="A14" s="44"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="45"/>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="45"/>
+      <c r="R14" s="46"/>
     </row>
     <row r="15" spans="1:18" ht="15" customHeight="1">
-      <c r="A15" s="62"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="63"/>
-      <c r="O15" s="63"/>
-      <c r="P15" s="63"/>
-      <c r="Q15" s="63"/>
-      <c r="R15" s="64"/>
+      <c r="A15" s="44"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="45"/>
+      <c r="P15" s="45"/>
+      <c r="Q15" s="45"/>
+      <c r="R15" s="46"/>
     </row>
     <row r="16" spans="1:18" ht="15" customHeight="1">
-      <c r="A16" s="62"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="63"/>
-      <c r="K16" s="63"/>
-      <c r="L16" s="63"/>
-      <c r="M16" s="63"/>
-      <c r="N16" s="63"/>
-      <c r="O16" s="63"/>
-      <c r="P16" s="63"/>
-      <c r="Q16" s="63"/>
-      <c r="R16" s="64"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="45"/>
+      <c r="P16" s="45"/>
+      <c r="Q16" s="45"/>
+      <c r="R16" s="46"/>
     </row>
     <row r="17" spans="1:18" ht="15" customHeight="1">
-      <c r="A17" s="62"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="63"/>
-      <c r="O17" s="63"/>
-      <c r="P17" s="63"/>
-      <c r="Q17" s="63"/>
-      <c r="R17" s="64"/>
+      <c r="A17" s="44"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="45"/>
+      <c r="P17" s="45"/>
+      <c r="Q17" s="45"/>
+      <c r="R17" s="46"/>
     </row>
     <row r="18" spans="1:18" ht="15" customHeight="1">
-      <c r="A18" s="62"/>
-      <c r="B18" s="63"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="63"/>
-      <c r="K18" s="63"/>
-      <c r="L18" s="63"/>
-      <c r="M18" s="63"/>
-      <c r="N18" s="63"/>
-      <c r="O18" s="63"/>
-      <c r="P18" s="63"/>
-      <c r="Q18" s="63"/>
-      <c r="R18" s="64"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="45"/>
+      <c r="O18" s="45"/>
+      <c r="P18" s="45"/>
+      <c r="Q18" s="45"/>
+      <c r="R18" s="46"/>
     </row>
     <row r="19" spans="1:18" ht="15" customHeight="1">
-      <c r="A19" s="62"/>
-      <c r="B19" s="63"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="63"/>
-      <c r="O19" s="63"/>
-      <c r="P19" s="63"/>
-      <c r="Q19" s="63"/>
-      <c r="R19" s="64"/>
+      <c r="A19" s="44"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="45"/>
+      <c r="P19" s="45"/>
+      <c r="Q19" s="45"/>
+      <c r="R19" s="46"/>
     </row>
     <row r="20" spans="1:18" ht="15" customHeight="1">
-      <c r="A20" s="62"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="63"/>
-      <c r="K20" s="63"/>
-      <c r="L20" s="63"/>
-      <c r="M20" s="63"/>
-      <c r="N20" s="63"/>
-      <c r="O20" s="63"/>
-      <c r="P20" s="63"/>
-      <c r="Q20" s="63"/>
-      <c r="R20" s="64"/>
+      <c r="A20" s="44"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="45"/>
+      <c r="P20" s="45"/>
+      <c r="Q20" s="45"/>
+      <c r="R20" s="46"/>
     </row>
     <row r="21" spans="1:18" ht="15" customHeight="1">
-      <c r="A21" s="62"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="63"/>
-      <c r="J21" s="63"/>
-      <c r="K21" s="63"/>
-      <c r="L21" s="63"/>
-      <c r="M21" s="63"/>
-      <c r="N21" s="63"/>
-      <c r="O21" s="63"/>
-      <c r="P21" s="63"/>
-      <c r="Q21" s="63"/>
-      <c r="R21" s="64"/>
+      <c r="A21" s="44"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="45"/>
+      <c r="O21" s="45"/>
+      <c r="P21" s="45"/>
+      <c r="Q21" s="45"/>
+      <c r="R21" s="46"/>
     </row>
     <row r="22" spans="1:18">
-      <c r="A22" s="62"/>
-      <c r="B22" s="63"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="63"/>
-      <c r="K22" s="63"/>
-      <c r="L22" s="63"/>
-      <c r="M22" s="63"/>
-      <c r="N22" s="63"/>
-      <c r="O22" s="63"/>
-      <c r="P22" s="63"/>
-      <c r="Q22" s="63"/>
-      <c r="R22" s="64"/>
+      <c r="A22" s="44"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="45"/>
+      <c r="O22" s="45"/>
+      <c r="P22" s="45"/>
+      <c r="Q22" s="45"/>
+      <c r="R22" s="46"/>
     </row>
     <row r="23" spans="1:18">
-      <c r="A23" s="65"/>
-      <c r="B23" s="66"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="66"/>
-      <c r="J23" s="66"/>
-      <c r="K23" s="66"/>
-      <c r="L23" s="66"/>
-      <c r="M23" s="66"/>
-      <c r="N23" s="66"/>
-      <c r="O23" s="66"/>
-      <c r="P23" s="66"/>
-      <c r="Q23" s="66"/>
-      <c r="R23" s="67"/>
+      <c r="A23" s="47"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="48"/>
+      <c r="M23" s="48"/>
+      <c r="N23" s="48"/>
+      <c r="O23" s="48"/>
+      <c r="P23" s="48"/>
+      <c r="Q23" s="48"/>
+      <c r="R23" s="49"/>
     </row>
     <row r="24" spans="1:18" ht="20.25" customHeight="1">
       <c r="A24" s="2"/>
@@ -1598,366 +1677,366 @@
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
     </row>
-    <row r="25" spans="1:18" ht="20.25">
-      <c r="A25" s="34" t="s">
+    <row r="25" spans="1:18" ht="20">
+      <c r="A25" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="35"/>
-      <c r="N25" s="35"/>
-      <c r="O25" s="35"/>
-      <c r="P25" s="35"/>
-      <c r="Q25" s="35"/>
-      <c r="R25" s="36"/>
-    </row>
-    <row r="26" spans="1:18" ht="18.75">
-      <c r="A26" s="37" t="s">
+      <c r="B25" s="51"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="51"/>
+      <c r="L25" s="51"/>
+      <c r="M25" s="51"/>
+      <c r="N25" s="51"/>
+      <c r="O25" s="51"/>
+      <c r="P25" s="51"/>
+      <c r="Q25" s="51"/>
+      <c r="R25" s="52"/>
+    </row>
+    <row r="26" spans="1:18" ht="18">
+      <c r="A26" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="38"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="38" t="s">
+      <c r="B26" s="54"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="38"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="38"/>
-      <c r="N26" s="38"/>
-      <c r="O26" s="38"/>
-      <c r="P26" s="38"/>
-      <c r="Q26" s="38"/>
-      <c r="R26" s="39"/>
-    </row>
-    <row r="27" spans="1:18" ht="15.75">
-      <c r="A27" s="40" t="s">
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="54"/>
+      <c r="K26" s="54"/>
+      <c r="L26" s="54"/>
+      <c r="M26" s="54"/>
+      <c r="N26" s="54"/>
+      <c r="O26" s="54"/>
+      <c r="P26" s="54"/>
+      <c r="Q26" s="54"/>
+      <c r="R26" s="55"/>
+    </row>
+    <row r="27" spans="1:18" ht="16">
+      <c r="A27" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="40"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40" t="s">
+      <c r="B27" s="56"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="40"/>
-      <c r="L27" s="40"/>
-      <c r="M27" s="40"/>
-      <c r="N27" s="40"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="40"/>
-    </row>
-    <row r="28" spans="1:18" ht="15.75">
-      <c r="A28" s="25" t="s">
+      <c r="G27" s="56"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="56"/>
+      <c r="M27" s="56"/>
+      <c r="N27" s="56"/>
+      <c r="O27" s="56"/>
+      <c r="P27" s="56"/>
+      <c r="Q27" s="56"/>
+      <c r="R27" s="56"/>
+    </row>
+    <row r="28" spans="1:18" ht="16">
+      <c r="A28" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="26" t="s">
+      <c r="B28" s="57"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="26"/>
-      <c r="M28" s="26"/>
-      <c r="N28" s="26"/>
-      <c r="O28" s="26"/>
-      <c r="P28" s="26"/>
-      <c r="Q28" s="26"/>
-      <c r="R28" s="27"/>
-    </row>
-    <row r="29" spans="1:18" ht="15.75">
-      <c r="A29" s="28" t="s">
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="58"/>
+      <c r="L28" s="58"/>
+      <c r="M28" s="58"/>
+      <c r="N28" s="58"/>
+      <c r="O28" s="58"/>
+      <c r="P28" s="58"/>
+      <c r="Q28" s="58"/>
+      <c r="R28" s="59"/>
+    </row>
+    <row r="29" spans="1:18" ht="16">
+      <c r="A29" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28" t="s">
+      <c r="B29" s="60"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="28"/>
-      <c r="O29" s="28"/>
-      <c r="P29" s="28"/>
-      <c r="Q29" s="28"/>
-      <c r="R29" s="28"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="60"/>
+      <c r="K29" s="60"/>
+      <c r="L29" s="60"/>
+      <c r="M29" s="60"/>
+      <c r="N29" s="60"/>
+      <c r="O29" s="60"/>
+      <c r="P29" s="60"/>
+      <c r="Q29" s="60"/>
+      <c r="R29" s="60"/>
     </row>
     <row r="30" spans="1:18" ht="30.75" customHeight="1">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25" t="s">
+      <c r="B30" s="57"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="25"/>
-      <c r="L30" s="25"/>
-      <c r="M30" s="25"/>
-      <c r="N30" s="25"/>
-      <c r="O30" s="25"/>
-      <c r="P30" s="25"/>
-      <c r="Q30" s="25"/>
-      <c r="R30" s="25"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="57"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="57"/>
+      <c r="L30" s="57"/>
+      <c r="M30" s="57"/>
+      <c r="N30" s="57"/>
+      <c r="O30" s="57"/>
+      <c r="P30" s="57"/>
+      <c r="Q30" s="57"/>
+      <c r="R30" s="57"/>
     </row>
     <row r="31" spans="1:18" ht="30.75" customHeight="1">
-      <c r="A31" s="33" t="s">
+      <c r="A31" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="25" t="s">
+      <c r="B31" s="58"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="25"/>
-      <c r="L31" s="25"/>
-      <c r="M31" s="25"/>
-      <c r="N31" s="25"/>
-      <c r="O31" s="25"/>
-      <c r="P31" s="25"/>
-      <c r="Q31" s="25"/>
-      <c r="R31" s="25"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="57"/>
+      <c r="J31" s="57"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="57"/>
+      <c r="M31" s="57"/>
+      <c r="N31" s="57"/>
+      <c r="O31" s="57"/>
+      <c r="P31" s="57"/>
+      <c r="Q31" s="57"/>
+      <c r="R31" s="57"/>
     </row>
     <row r="32" spans="1:18" ht="33.75" customHeight="1">
-      <c r="A32" s="32" t="s">
+      <c r="A32" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32" t="s">
+      <c r="B32" s="64"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="32"/>
-      <c r="J32" s="32"/>
-      <c r="K32" s="32"/>
-      <c r="L32" s="32"/>
-      <c r="M32" s="32"/>
-      <c r="N32" s="32"/>
-      <c r="O32" s="32"/>
-      <c r="P32" s="32"/>
-      <c r="Q32" s="32"/>
-      <c r="R32" s="32"/>
+      <c r="G32" s="64"/>
+      <c r="H32" s="64"/>
+      <c r="I32" s="64"/>
+      <c r="J32" s="64"/>
+      <c r="K32" s="64"/>
+      <c r="L32" s="64"/>
+      <c r="M32" s="64"/>
+      <c r="N32" s="64"/>
+      <c r="O32" s="64"/>
+      <c r="P32" s="64"/>
+      <c r="Q32" s="64"/>
+      <c r="R32" s="64"/>
     </row>
     <row r="33" spans="1:19" ht="19.5" customHeight="1">
-      <c r="A33" s="29" t="s">
+      <c r="A33" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30"/>
-      <c r="N33" s="30"/>
-      <c r="O33" s="30"/>
-      <c r="P33" s="30"/>
-      <c r="Q33" s="30"/>
-      <c r="R33" s="31"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="62"/>
+      <c r="J33" s="62"/>
+      <c r="K33" s="62"/>
+      <c r="L33" s="62"/>
+      <c r="M33" s="62"/>
+      <c r="N33" s="62"/>
+      <c r="O33" s="62"/>
+      <c r="P33" s="62"/>
+      <c r="Q33" s="62"/>
+      <c r="R33" s="63"/>
     </row>
     <row r="34" spans="1:19" ht="19.5" customHeight="1">
-      <c r="A34" s="18"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="18"/>
-      <c r="M34" s="18"/>
-      <c r="N34" s="18"/>
-      <c r="O34" s="18"/>
-      <c r="P34" s="18"/>
-      <c r="Q34" s="18"/>
-      <c r="R34" s="18"/>
-      <c r="S34" s="17"/>
-    </row>
-    <row r="35" spans="1:19" ht="20.25">
-      <c r="A35" s="19"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19"/>
-      <c r="M35" s="19"/>
-      <c r="N35" s="19"/>
-      <c r="O35" s="19"/>
-      <c r="P35" s="19"/>
-      <c r="Q35" s="19"/>
-      <c r="R35" s="19"/>
-      <c r="S35" s="17"/>
-    </row>
-    <row r="36" spans="1:19" ht="18.75">
-      <c r="A36" s="20"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="20"/>
-      <c r="L36" s="20"/>
-      <c r="M36" s="20"/>
-      <c r="N36" s="20"/>
-      <c r="O36" s="20"/>
-      <c r="P36" s="20"/>
-      <c r="Q36" s="20"/>
-      <c r="R36" s="20"/>
-      <c r="S36" s="17"/>
-    </row>
-    <row r="37" spans="1:19" ht="15.75">
-      <c r="A37" s="21"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="21"/>
-      <c r="K37" s="21"/>
-      <c r="L37" s="21"/>
-      <c r="M37" s="21"/>
-      <c r="N37" s="21"/>
-      <c r="O37" s="21"/>
-      <c r="P37" s="21"/>
-      <c r="Q37" s="21"/>
-      <c r="R37" s="21"/>
-      <c r="S37" s="17"/>
-    </row>
-    <row r="38" spans="1:19" ht="15.75">
-      <c r="A38" s="21"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="21"/>
-      <c r="L38" s="21"/>
-      <c r="M38" s="21"/>
-      <c r="N38" s="21"/>
-      <c r="O38" s="21"/>
-      <c r="P38" s="21"/>
-      <c r="Q38" s="21"/>
-      <c r="R38" s="21"/>
-      <c r="S38" s="17"/>
-    </row>
-    <row r="39" spans="1:19" ht="15.75">
-      <c r="A39" s="21"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="21"/>
-      <c r="L39" s="21"/>
-      <c r="M39" s="21"/>
-      <c r="N39" s="21"/>
-      <c r="O39" s="21"/>
-      <c r="P39" s="21"/>
-      <c r="Q39" s="21"/>
-      <c r="R39" s="21"/>
-      <c r="S39" s="17"/>
-    </row>
-    <row r="40" spans="1:19" ht="15.75">
-      <c r="A40" s="22"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="22"/>
-      <c r="J40" s="22"/>
-      <c r="K40" s="22"/>
-      <c r="L40" s="22"/>
-      <c r="M40" s="22"/>
-      <c r="N40" s="22"/>
-      <c r="O40" s="22"/>
-      <c r="P40" s="22"/>
-      <c r="Q40" s="22"/>
-      <c r="R40" s="22"/>
-      <c r="S40" s="17"/>
-    </row>
-    <row r="41" spans="1:19" ht="15.75">
+      <c r="A34" s="17"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
+      <c r="R34" s="17"/>
+      <c r="S34" s="16"/>
+    </row>
+    <row r="35" spans="1:19" ht="20">
+      <c r="A35" s="18"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="18"/>
+      <c r="N35" s="18"/>
+      <c r="O35" s="18"/>
+      <c r="P35" s="18"/>
+      <c r="Q35" s="18"/>
+      <c r="R35" s="18"/>
+      <c r="S35" s="16"/>
+    </row>
+    <row r="36" spans="1:19" ht="18">
+      <c r="A36" s="19"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="19"/>
+      <c r="P36" s="19"/>
+      <c r="Q36" s="19"/>
+      <c r="R36" s="19"/>
+      <c r="S36" s="16"/>
+    </row>
+    <row r="37" spans="1:19" ht="16">
+      <c r="A37" s="20"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="20"/>
+      <c r="N37" s="20"/>
+      <c r="O37" s="20"/>
+      <c r="P37" s="20"/>
+      <c r="Q37" s="20"/>
+      <c r="R37" s="20"/>
+      <c r="S37" s="16"/>
+    </row>
+    <row r="38" spans="1:19" ht="16">
+      <c r="A38" s="20"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="20"/>
+      <c r="N38" s="20"/>
+      <c r="O38" s="20"/>
+      <c r="P38" s="20"/>
+      <c r="Q38" s="20"/>
+      <c r="R38" s="20"/>
+      <c r="S38" s="16"/>
+    </row>
+    <row r="39" spans="1:19" ht="16">
+      <c r="A39" s="20"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="20"/>
+      <c r="N39" s="20"/>
+      <c r="O39" s="20"/>
+      <c r="P39" s="20"/>
+      <c r="Q39" s="20"/>
+      <c r="R39" s="20"/>
+      <c r="S39" s="16"/>
+    </row>
+    <row r="40" spans="1:19" ht="16">
+      <c r="A40" s="21"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="21"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="21"/>
+      <c r="O40" s="21"/>
+      <c r="P40" s="21"/>
+      <c r="Q40" s="21"/>
+      <c r="R40" s="21"/>
+      <c r="S40" s="16"/>
+    </row>
+    <row r="41" spans="1:19" ht="16">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -1977,7 +2056,7 @@
       <c r="Q41" s="6"/>
       <c r="R41" s="6"/>
     </row>
-    <row r="42" spans="1:19" ht="15.75">
+    <row r="42" spans="1:19" ht="16">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
@@ -1997,7 +2076,7 @@
       <c r="Q42" s="6"/>
       <c r="R42" s="6"/>
     </row>
-    <row r="43" spans="1:19" ht="15.75">
+    <row r="43" spans="1:19" ht="16">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -2017,7 +2096,7 @@
       <c r="Q43" s="6"/>
       <c r="R43" s="6"/>
     </row>
-    <row r="44" spans="1:19" ht="15.75">
+    <row r="44" spans="1:19" ht="16">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
@@ -2037,7 +2116,7 @@
       <c r="Q44" s="6"/>
       <c r="R44" s="6"/>
     </row>
-    <row r="45" spans="1:19" ht="15.75">
+    <row r="45" spans="1:19" ht="16">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
@@ -2057,7 +2136,7 @@
       <c r="Q45" s="6"/>
       <c r="R45" s="6"/>
     </row>
-    <row r="46" spans="1:19" ht="15.75">
+    <row r="46" spans="1:19" ht="16">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
@@ -2077,7 +2156,7 @@
       <c r="Q46" s="6"/>
       <c r="R46" s="6"/>
     </row>
-    <row r="47" spans="1:19" ht="15.75">
+    <row r="47" spans="1:19" ht="16">
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
@@ -2097,7 +2176,7 @@
       <c r="Q47" s="6"/>
       <c r="R47" s="6"/>
     </row>
-    <row r="48" spans="1:19" ht="15.75">
+    <row r="48" spans="1:19" ht="16">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
@@ -2117,7 +2196,7 @@
       <c r="Q48" s="6"/>
       <c r="R48" s="6"/>
     </row>
-    <row r="49" spans="1:18" ht="15.75">
+    <row r="49" spans="1:18" ht="16">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
@@ -2137,7 +2216,7 @@
       <c r="Q49" s="6"/>
       <c r="R49" s="6"/>
     </row>
-    <row r="50" spans="1:18" ht="15.75">
+    <row r="50" spans="1:18" ht="16">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
@@ -2157,7 +2236,7 @@
       <c r="Q50" s="6"/>
       <c r="R50" s="6"/>
     </row>
-    <row r="51" spans="1:18" ht="15.75">
+    <row r="51" spans="1:18" ht="16">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
@@ -2177,7 +2256,7 @@
       <c r="Q51" s="6"/>
       <c r="R51" s="6"/>
     </row>
-    <row r="52" spans="1:18" ht="15.75">
+    <row r="52" spans="1:18" ht="16">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
@@ -2197,7 +2276,7 @@
       <c r="Q52" s="6"/>
       <c r="R52" s="6"/>
     </row>
-    <row r="53" spans="1:18" ht="15.75">
+    <row r="53" spans="1:18" ht="16">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
@@ -2217,7 +2296,7 @@
       <c r="Q53" s="6"/>
       <c r="R53" s="6"/>
     </row>
-    <row r="54" spans="1:18" ht="18.75">
+    <row r="54" spans="1:18" ht="18">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -2237,7 +2316,7 @@
       <c r="Q54" s="5"/>
       <c r="R54" s="5"/>
     </row>
-    <row r="55" spans="1:18" ht="18.75">
+    <row r="55" spans="1:18" ht="18">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -2257,7 +2336,7 @@
       <c r="Q55" s="5"/>
       <c r="R55" s="5"/>
     </row>
-    <row r="56" spans="1:18" ht="18.75">
+    <row r="56" spans="1:18" ht="18">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -2579,16 +2658,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A1:R2"/>
-    <mergeCell ref="A8:R8"/>
-    <mergeCell ref="A4:R4"/>
-    <mergeCell ref="A5:R6"/>
-    <mergeCell ref="A9:R23"/>
-    <mergeCell ref="A25:R25"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="F26:R26"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="F27:R27"/>
     <mergeCell ref="A28:E28"/>
     <mergeCell ref="F28:R28"/>
     <mergeCell ref="F29:R29"/>
@@ -2600,6 +2669,16 @@
     <mergeCell ref="F32:R32"/>
     <mergeCell ref="A31:E31"/>
     <mergeCell ref="F31:R31"/>
+    <mergeCell ref="A25:R25"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="F26:R26"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="F27:R27"/>
+    <mergeCell ref="A1:R2"/>
+    <mergeCell ref="A8:R8"/>
+    <mergeCell ref="A4:R4"/>
+    <mergeCell ref="A5:R6"/>
+    <mergeCell ref="A9:R23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2612,20 +2691,21 @@
   </sheetPr>
   <dimension ref="A1:F373"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="144" zoomScaleNormal="144" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" style="7" customWidth="1"/>
-    <col min="3" max="3" width="39.85546875" style="4" customWidth="1"/>
-    <col min="4" max="5" width="53.140625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="63.5703125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="15.5" style="7" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="39.83203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="60.83203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="53.1640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="63.5" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75">
+    <row r="1" spans="1:6" ht="19">
       <c r="A1" s="8" t="s">
         <v>21</v>
       </c>
@@ -2645,42 +2725,57 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="47.25">
-      <c r="A2" s="11" cm="1">
+    <row r="2" spans="1:6" ht="62" customHeight="1">
+      <c r="A2" s="66" cm="1">
         <f t="array" aca="1" ref="A2" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v>1</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2" s="67">
         <v>16</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="72" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="F2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="4" t="s">
+    </row>
+    <row r="3" spans="1:6" ht="51">
+      <c r="A3" s="11" cm="1">
+        <f t="array" aca="1" ref="A3" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="11">
+        <v>5</v>
+      </c>
+      <c r="C3" s="71" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75">
-      <c r="A3" s="11" t="str" cm="1">
-        <f t="array" aca="1" ref="A3" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
-        <v/>
-      </c>
-      <c r="B3" s="11"/>
-    </row>
-    <row r="4" spans="1:6" ht="15.75">
+      <c r="D3" s="72" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="74" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="68" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A4" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B4" s="11"/>
-    </row>
-    <row r="5" spans="1:6" ht="15.75">
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A5" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
@@ -2689,7 +2784,7 @@
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
     </row>
-    <row r="6" spans="1:6" ht="15.75">
+    <row r="6" spans="1:6">
       <c r="A6" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A6" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
@@ -2698,7 +2793,7 @@
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
     </row>
-    <row r="7" spans="1:6" ht="15.75">
+    <row r="7" spans="1:6">
       <c r="A7" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A7" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
@@ -2707,7 +2802,7 @@
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
     </row>
-    <row r="8" spans="1:6" ht="15.75">
+    <row r="8" spans="1:6">
       <c r="A8" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A8" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
@@ -2716,56 +2811,56 @@
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
     </row>
-    <row r="9" spans="1:6" ht="15.75">
+    <row r="9" spans="1:6">
       <c r="A9" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A9" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B9" s="11"/>
     </row>
-    <row r="10" spans="1:6" ht="15.75">
+    <row r="10" spans="1:6">
       <c r="A10" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A10" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B10" s="11"/>
     </row>
-    <row r="11" spans="1:6" ht="15.75">
+    <row r="11" spans="1:6">
       <c r="A11" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A11" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B11" s="11"/>
     </row>
-    <row r="12" spans="1:6" ht="15.75">
+    <row r="12" spans="1:6">
       <c r="A12" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A12" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B12" s="11"/>
     </row>
-    <row r="13" spans="1:6" ht="15.75">
+    <row r="13" spans="1:6">
       <c r="A13" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A13" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B13" s="11"/>
     </row>
-    <row r="14" spans="1:6" ht="15.75">
+    <row r="14" spans="1:6">
       <c r="A14" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A14" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B14" s="11"/>
     </row>
-    <row r="15" spans="1:6" ht="15.75">
+    <row r="15" spans="1:6">
       <c r="A15" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A15" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B15" s="11"/>
     </row>
-    <row r="16" spans="1:6" ht="15.75">
+    <row r="16" spans="1:6">
       <c r="A16" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A16" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
@@ -2774,7 +2869,7 @@
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
     </row>
-    <row r="17" spans="1:5" ht="15.75">
+    <row r="17" spans="1:5">
       <c r="A17" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A17" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
@@ -2790,15 +2885,15 @@
       </c>
       <c r="B18" s="11"/>
     </row>
-    <row r="19" spans="1:5" ht="15.75">
+    <row r="19" spans="1:5">
       <c r="A19" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A19" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B19" s="11"/>
-      <c r="C19" s="23"/>
-    </row>
-    <row r="20" spans="1:5" ht="15.75">
+      <c r="C19" s="22"/>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A20" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
@@ -2812,7 +2907,7 @@
       </c>
       <c r="B21" s="11"/>
     </row>
-    <row r="22" spans="1:5" ht="15.75">
+    <row r="22" spans="1:5">
       <c r="A22" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A22" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
@@ -2826,7 +2921,7 @@
       </c>
       <c r="B23" s="11"/>
     </row>
-    <row r="24" spans="1:5" ht="15.75">
+    <row r="24" spans="1:5">
       <c r="A24" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A24" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
@@ -2835,7 +2930,7 @@
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
     </row>
-    <row r="25" spans="1:5" ht="15.75">
+    <row r="25" spans="1:5">
       <c r="A25" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A25" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
@@ -2844,280 +2939,280 @@
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
     </row>
-    <row r="26" spans="1:5" ht="15.75">
+    <row r="26" spans="1:5">
       <c r="A26" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A26" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B26" s="11"/>
     </row>
-    <row r="27" spans="1:5" ht="15.75">
+    <row r="27" spans="1:5">
       <c r="A27" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A27" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B27" s="11"/>
     </row>
-    <row r="28" spans="1:5" ht="15.75">
+    <row r="28" spans="1:5">
       <c r="A28" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A28" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B28" s="11"/>
     </row>
-    <row r="29" spans="1:5" ht="15.75">
+    <row r="29" spans="1:5">
       <c r="A29" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A29" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B29" s="11"/>
     </row>
-    <row r="30" spans="1:5" ht="15.75">
+    <row r="30" spans="1:5">
       <c r="A30" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A30" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B30" s="11"/>
     </row>
-    <row r="31" spans="1:5" ht="15.75">
+    <row r="31" spans="1:5">
       <c r="A31" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A31" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B31" s="11"/>
     </row>
-    <row r="32" spans="1:5" ht="15.75">
+    <row r="32" spans="1:5">
       <c r="A32" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A32" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B32" s="11"/>
     </row>
-    <row r="33" spans="1:2" ht="15.75">
+    <row r="33" spans="1:2">
       <c r="A33" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A33" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B33" s="11"/>
     </row>
-    <row r="34" spans="1:2" ht="15.75">
+    <row r="34" spans="1:2">
       <c r="A34" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A34" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B34" s="11"/>
     </row>
-    <row r="35" spans="1:2" ht="15.75">
+    <row r="35" spans="1:2">
       <c r="A35" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A35" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B35" s="11"/>
     </row>
-    <row r="36" spans="1:2" ht="15.75">
+    <row r="36" spans="1:2">
       <c r="A36" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A36" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B36" s="11"/>
     </row>
-    <row r="37" spans="1:2" ht="15.75">
+    <row r="37" spans="1:2">
       <c r="A37" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A37" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B37" s="11"/>
     </row>
-    <row r="38" spans="1:2" ht="15.75">
+    <row r="38" spans="1:2">
       <c r="A38" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A38" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B38" s="11"/>
     </row>
-    <row r="39" spans="1:2" ht="15.75">
+    <row r="39" spans="1:2">
       <c r="A39" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A39" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B39" s="11"/>
     </row>
-    <row r="40" spans="1:2" ht="15.75">
+    <row r="40" spans="1:2">
       <c r="A40" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A40" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B40" s="11"/>
     </row>
-    <row r="41" spans="1:2" ht="15.75">
+    <row r="41" spans="1:2">
       <c r="A41" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A41" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B41" s="11"/>
     </row>
-    <row r="42" spans="1:2" ht="15.75">
+    <row r="42" spans="1:2">
       <c r="A42" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A42" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B42" s="11"/>
     </row>
-    <row r="43" spans="1:2" ht="15.75">
+    <row r="43" spans="1:2">
       <c r="A43" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A43" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B43" s="11"/>
     </row>
-    <row r="44" spans="1:2" ht="15.75">
+    <row r="44" spans="1:2">
       <c r="A44" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A44" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B44" s="11"/>
     </row>
-    <row r="45" spans="1:2" ht="15.75">
+    <row r="45" spans="1:2">
       <c r="A45" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A45" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B45" s="11"/>
     </row>
-    <row r="46" spans="1:2" ht="15.75">
+    <row r="46" spans="1:2">
       <c r="A46" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A46" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B46" s="11"/>
     </row>
-    <row r="47" spans="1:2" ht="15.75">
+    <row r="47" spans="1:2">
       <c r="A47" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A47" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B47" s="11"/>
     </row>
-    <row r="48" spans="1:2" ht="15.75">
+    <row r="48" spans="1:2">
       <c r="A48" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A48" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B48" s="11"/>
     </row>
-    <row r="49" spans="1:2" ht="15.75">
+    <row r="49" spans="1:2">
       <c r="A49" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A49" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B49" s="11"/>
     </row>
-    <row r="50" spans="1:2" ht="15.75">
+    <row r="50" spans="1:2">
       <c r="A50" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A50" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B50" s="11"/>
     </row>
-    <row r="51" spans="1:2" ht="15.75">
+    <row r="51" spans="1:2">
       <c r="A51" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A51" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B51" s="11"/>
     </row>
-    <row r="52" spans="1:2" ht="15.75">
+    <row r="52" spans="1:2">
       <c r="A52" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A52" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B52" s="11"/>
     </row>
-    <row r="53" spans="1:2" ht="15.75">
+    <row r="53" spans="1:2">
       <c r="A53" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A53" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B53" s="11"/>
     </row>
-    <row r="54" spans="1:2" ht="15.75">
+    <row r="54" spans="1:2">
       <c r="A54" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A54" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B54" s="11"/>
     </row>
-    <row r="55" spans="1:2" ht="15.75">
+    <row r="55" spans="1:2">
       <c r="A55" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A55" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B55" s="11"/>
     </row>
-    <row r="56" spans="1:2" ht="15.75">
+    <row r="56" spans="1:2">
       <c r="A56" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A56" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B56" s="11"/>
     </row>
-    <row r="57" spans="1:2" ht="15.75">
+    <row r="57" spans="1:2">
       <c r="A57" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A57" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B57" s="11"/>
     </row>
-    <row r="58" spans="1:2" ht="15.75">
+    <row r="58" spans="1:2">
       <c r="A58" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A58" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B58" s="11"/>
     </row>
-    <row r="59" spans="1:2" ht="15.75">
+    <row r="59" spans="1:2">
       <c r="A59" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A59" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B59" s="11"/>
     </row>
-    <row r="60" spans="1:2" ht="15.75">
+    <row r="60" spans="1:2">
       <c r="A60" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A60" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B60" s="11"/>
     </row>
-    <row r="61" spans="1:2" ht="15.75">
+    <row r="61" spans="1:2">
       <c r="A61" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A61" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B61" s="11"/>
     </row>
-    <row r="62" spans="1:2" ht="15.75">
+    <row r="62" spans="1:2">
       <c r="A62" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A62" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B62" s="11"/>
     </row>
-    <row r="63" spans="1:2" ht="15.75">
+    <row r="63" spans="1:2">
       <c r="A63" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A63" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B63" s="11"/>
     </row>
-    <row r="64" spans="1:2" ht="15.75">
+    <row r="64" spans="1:2">
       <c r="A64" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A64" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B64" s="11"/>
     </row>
-    <row r="65" spans="1:6" ht="15.75">
+    <row r="65" spans="1:6">
       <c r="A65" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A65" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
@@ -3128,2156 +3223,2156 @@
       <c r="E65" s="10"/>
       <c r="F65" s="10"/>
     </row>
-    <row r="66" spans="1:6" ht="15.75">
+    <row r="66" spans="1:6">
       <c r="A66" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A66" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B66" s="11"/>
     </row>
-    <row r="67" spans="1:6" ht="15.75">
+    <row r="67" spans="1:6">
       <c r="A67" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A67" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B67" s="11"/>
     </row>
-    <row r="68" spans="1:6" ht="15.75">
+    <row r="68" spans="1:6">
       <c r="A68" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A68" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B68" s="11"/>
     </row>
-    <row r="69" spans="1:6" ht="15.75">
+    <row r="69" spans="1:6">
       <c r="A69" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A69" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B69" s="11"/>
     </row>
-    <row r="70" spans="1:6" ht="15.75">
+    <row r="70" spans="1:6">
       <c r="A70" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A70" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B70" s="11"/>
     </row>
-    <row r="71" spans="1:6" ht="15.75">
+    <row r="71" spans="1:6">
       <c r="A71" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A71" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B71" s="11"/>
     </row>
-    <row r="72" spans="1:6" ht="15.75">
+    <row r="72" spans="1:6">
       <c r="A72" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A72" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B72" s="11"/>
     </row>
-    <row r="73" spans="1:6" ht="15.75">
+    <row r="73" spans="1:6">
       <c r="A73" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A73" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B73" s="11"/>
     </row>
-    <row r="74" spans="1:6" ht="15.75">
+    <row r="74" spans="1:6">
       <c r="A74" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A74" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B74" s="11"/>
     </row>
-    <row r="75" spans="1:6" ht="15.75">
+    <row r="75" spans="1:6">
       <c r="A75" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A75" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B75" s="11"/>
     </row>
-    <row r="76" spans="1:6" ht="15.75">
+    <row r="76" spans="1:6">
       <c r="A76" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A76" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B76" s="11"/>
     </row>
-    <row r="77" spans="1:6" ht="15.75">
+    <row r="77" spans="1:6">
       <c r="A77" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A77" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B77" s="11"/>
     </row>
-    <row r="78" spans="1:6" ht="15.75">
+    <row r="78" spans="1:6">
       <c r="A78" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A78" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B78" s="11"/>
     </row>
-    <row r="79" spans="1:6" ht="15.75">
+    <row r="79" spans="1:6">
       <c r="A79" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A79" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B79" s="11"/>
     </row>
-    <row r="80" spans="1:6" ht="15.75">
+    <row r="80" spans="1:6">
       <c r="A80" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A80" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B80" s="11"/>
     </row>
-    <row r="81" spans="1:2" ht="15.75">
+    <row r="81" spans="1:2">
       <c r="A81" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A81" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B81" s="11"/>
     </row>
-    <row r="82" spans="1:2" ht="15.75">
+    <row r="82" spans="1:2">
       <c r="A82" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A82" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B82" s="11"/>
     </row>
-    <row r="83" spans="1:2" ht="15.75">
+    <row r="83" spans="1:2">
       <c r="A83" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A83" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B83" s="11"/>
     </row>
-    <row r="84" spans="1:2" ht="15.75">
+    <row r="84" spans="1:2">
       <c r="A84" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A84" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B84" s="11"/>
     </row>
-    <row r="85" spans="1:2" ht="15.75">
+    <row r="85" spans="1:2">
       <c r="A85" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A85" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B85" s="11"/>
     </row>
-    <row r="86" spans="1:2" ht="15.75">
+    <row r="86" spans="1:2">
       <c r="A86" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A86" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B86" s="11"/>
     </row>
-    <row r="87" spans="1:2" ht="15.75">
+    <row r="87" spans="1:2">
       <c r="A87" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A87" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B87" s="11"/>
     </row>
-    <row r="88" spans="1:2" ht="15.75">
+    <row r="88" spans="1:2">
       <c r="A88" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A88" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B88" s="11"/>
     </row>
-    <row r="89" spans="1:2" ht="15.75">
+    <row r="89" spans="1:2">
       <c r="A89" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A89" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B89" s="11"/>
     </row>
-    <row r="90" spans="1:2" ht="15.75">
+    <row r="90" spans="1:2">
       <c r="A90" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A90" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B90" s="11"/>
     </row>
-    <row r="91" spans="1:2" ht="15.75">
+    <row r="91" spans="1:2">
       <c r="A91" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A91" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B91" s="11"/>
     </row>
-    <row r="92" spans="1:2" ht="15.75">
+    <row r="92" spans="1:2">
       <c r="A92" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A92" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B92" s="11"/>
     </row>
-    <row r="93" spans="1:2" ht="15.75">
+    <row r="93" spans="1:2">
       <c r="A93" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A93" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B93" s="11"/>
     </row>
-    <row r="94" spans="1:2" ht="15.75">
+    <row r="94" spans="1:2">
       <c r="A94" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A94" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B94" s="11"/>
     </row>
-    <row r="95" spans="1:2" ht="15.75">
+    <row r="95" spans="1:2">
       <c r="A95" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A95" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B95" s="11"/>
     </row>
-    <row r="96" spans="1:2" ht="15.75">
+    <row r="96" spans="1:2">
       <c r="A96" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A96" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B96" s="11"/>
     </row>
-    <row r="97" spans="1:2" ht="15.75">
+    <row r="97" spans="1:2">
       <c r="A97" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A97" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B97" s="11"/>
     </row>
-    <row r="98" spans="1:2" ht="15.75">
+    <row r="98" spans="1:2">
       <c r="A98" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A98" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B98" s="11"/>
     </row>
-    <row r="99" spans="1:2" ht="15.75">
+    <row r="99" spans="1:2">
       <c r="A99" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A99" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B99" s="11"/>
     </row>
-    <row r="100" spans="1:2" ht="15.75">
+    <row r="100" spans="1:2">
       <c r="A100" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A100" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B100" s="11"/>
     </row>
-    <row r="101" spans="1:2" ht="15.75">
+    <row r="101" spans="1:2">
       <c r="A101" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A101" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B101" s="11"/>
     </row>
-    <row r="102" spans="1:2" ht="15.75">
+    <row r="102" spans="1:2">
       <c r="A102" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A102" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B102" s="11"/>
     </row>
-    <row r="103" spans="1:2" ht="15.75">
+    <row r="103" spans="1:2">
       <c r="A103" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A103" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B103" s="11"/>
     </row>
-    <row r="104" spans="1:2" ht="15.75">
+    <row r="104" spans="1:2">
       <c r="A104" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A104" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B104" s="11"/>
     </row>
-    <row r="105" spans="1:2" ht="15.75">
+    <row r="105" spans="1:2">
       <c r="A105" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A105" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B105" s="11"/>
     </row>
-    <row r="106" spans="1:2" ht="15.75">
+    <row r="106" spans="1:2">
       <c r="A106" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A106" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B106" s="11"/>
     </row>
-    <row r="107" spans="1:2" ht="15.75">
+    <row r="107" spans="1:2">
       <c r="A107" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A107" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B107" s="11"/>
     </row>
-    <row r="108" spans="1:2" ht="15.75">
+    <row r="108" spans="1:2">
       <c r="A108" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A108" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B108" s="11"/>
     </row>
-    <row r="109" spans="1:2" ht="15.75">
+    <row r="109" spans="1:2">
       <c r="A109" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A109" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B109" s="11"/>
     </row>
-    <row r="110" spans="1:2" ht="15.75">
+    <row r="110" spans="1:2">
       <c r="A110" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A110" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B110" s="11"/>
     </row>
-    <row r="111" spans="1:2" ht="15.75">
+    <row r="111" spans="1:2">
       <c r="A111" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A111" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B111" s="11"/>
     </row>
-    <row r="112" spans="1:2" ht="15.75">
+    <row r="112" spans="1:2">
       <c r="A112" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A112" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B112" s="11"/>
     </row>
-    <row r="113" spans="1:2" ht="15.75">
+    <row r="113" spans="1:2">
       <c r="A113" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A113" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B113" s="11"/>
     </row>
-    <row r="114" spans="1:2" ht="15.75">
+    <row r="114" spans="1:2">
       <c r="A114" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A114" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B114" s="11"/>
     </row>
-    <row r="115" spans="1:2" ht="15.75">
+    <row r="115" spans="1:2">
       <c r="A115" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A115" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B115" s="11"/>
     </row>
-    <row r="116" spans="1:2" ht="15.75">
+    <row r="116" spans="1:2">
       <c r="A116" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A116" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B116" s="11"/>
     </row>
-    <row r="117" spans="1:2" ht="15.75">
+    <row r="117" spans="1:2">
       <c r="A117" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A117" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B117" s="11"/>
     </row>
-    <row r="118" spans="1:2" ht="15.75">
+    <row r="118" spans="1:2">
       <c r="A118" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A118" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B118" s="11"/>
     </row>
-    <row r="119" spans="1:2" ht="15.75">
+    <row r="119" spans="1:2">
       <c r="A119" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A119" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B119" s="11"/>
     </row>
-    <row r="120" spans="1:2" ht="15.75">
+    <row r="120" spans="1:2">
       <c r="A120" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A120" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B120" s="11"/>
     </row>
-    <row r="121" spans="1:2" ht="15.75">
+    <row r="121" spans="1:2">
       <c r="A121" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A121" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B121" s="11"/>
     </row>
-    <row r="122" spans="1:2" ht="15.75">
+    <row r="122" spans="1:2">
       <c r="A122" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A122" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B122" s="11"/>
     </row>
-    <row r="123" spans="1:2" ht="15.75">
+    <row r="123" spans="1:2">
       <c r="A123" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A123" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B123" s="11"/>
     </row>
-    <row r="124" spans="1:2" ht="15.75">
+    <row r="124" spans="1:2">
       <c r="A124" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A124" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B124" s="11"/>
     </row>
-    <row r="125" spans="1:2" ht="15.75">
+    <row r="125" spans="1:2">
       <c r="A125" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A125" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B125" s="11"/>
     </row>
-    <row r="126" spans="1:2" ht="15.75">
+    <row r="126" spans="1:2">
       <c r="A126" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A126" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B126" s="11"/>
     </row>
-    <row r="127" spans="1:2" ht="15.75">
+    <row r="127" spans="1:2">
       <c r="A127" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A127" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B127" s="11"/>
     </row>
-    <row r="128" spans="1:2" ht="15.75">
+    <row r="128" spans="1:2">
       <c r="A128" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A128" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B128" s="11"/>
     </row>
-    <row r="129" spans="1:2" ht="15.75">
+    <row r="129" spans="1:2">
       <c r="A129" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A129" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B129" s="11"/>
     </row>
-    <row r="130" spans="1:2" ht="15.75">
+    <row r="130" spans="1:2">
       <c r="A130" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A130" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B130" s="11"/>
     </row>
-    <row r="131" spans="1:2" ht="15.75">
+    <row r="131" spans="1:2">
       <c r="A131" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A131" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B131" s="11"/>
     </row>
-    <row r="132" spans="1:2" ht="15.75">
+    <row r="132" spans="1:2">
       <c r="A132" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A132" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B132" s="11"/>
     </row>
-    <row r="133" spans="1:2" ht="15.75">
+    <row r="133" spans="1:2">
       <c r="A133" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A133" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B133" s="11"/>
     </row>
-    <row r="134" spans="1:2" ht="15.75">
+    <row r="134" spans="1:2">
       <c r="A134" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A134" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B134" s="11"/>
     </row>
-    <row r="135" spans="1:2" ht="15.75">
+    <row r="135" spans="1:2">
       <c r="A135" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A135" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B135" s="11"/>
     </row>
-    <row r="136" spans="1:2" ht="15.75">
+    <row r="136" spans="1:2">
       <c r="A136" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A136" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B136" s="11"/>
     </row>
-    <row r="137" spans="1:2" ht="15.75">
+    <row r="137" spans="1:2">
       <c r="A137" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A137" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B137" s="11"/>
     </row>
-    <row r="138" spans="1:2" ht="15.75">
+    <row r="138" spans="1:2">
       <c r="A138" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A138" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B138" s="11"/>
     </row>
-    <row r="139" spans="1:2" ht="15.75">
+    <row r="139" spans="1:2">
       <c r="A139" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A139" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B139" s="11"/>
     </row>
-    <row r="140" spans="1:2" ht="15.75">
+    <row r="140" spans="1:2">
       <c r="A140" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A140" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B140" s="11"/>
     </row>
-    <row r="141" spans="1:2" ht="15.75">
+    <row r="141" spans="1:2">
       <c r="A141" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A141" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B141" s="11"/>
     </row>
-    <row r="142" spans="1:2" ht="15.75">
+    <row r="142" spans="1:2">
       <c r="A142" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A142" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B142" s="11"/>
     </row>
-    <row r="143" spans="1:2" ht="15.75">
+    <row r="143" spans="1:2">
       <c r="A143" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A143" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B143" s="11"/>
     </row>
-    <row r="144" spans="1:2" ht="15.75">
+    <row r="144" spans="1:2">
       <c r="A144" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A144" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B144" s="11"/>
     </row>
-    <row r="145" spans="1:2" ht="15.75">
+    <row r="145" spans="1:2">
       <c r="A145" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A145" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B145" s="11"/>
     </row>
-    <row r="146" spans="1:2" ht="15.75">
+    <row r="146" spans="1:2">
       <c r="A146" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A146" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B146" s="11"/>
     </row>
-    <row r="147" spans="1:2" ht="15.75">
+    <row r="147" spans="1:2">
       <c r="A147" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A147" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B147" s="11"/>
     </row>
-    <row r="148" spans="1:2" ht="15.75">
+    <row r="148" spans="1:2">
       <c r="A148" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A148" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B148" s="11"/>
     </row>
-    <row r="149" spans="1:2" ht="15.75">
+    <row r="149" spans="1:2">
       <c r="A149" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A149" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B149" s="11"/>
     </row>
-    <row r="150" spans="1:2" ht="15.75">
+    <row r="150" spans="1:2">
       <c r="A150" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A150" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B150" s="11"/>
     </row>
-    <row r="151" spans="1:2" ht="15.75">
+    <row r="151" spans="1:2">
       <c r="A151" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A151" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B151" s="11"/>
     </row>
-    <row r="152" spans="1:2" ht="15.75">
+    <row r="152" spans="1:2">
       <c r="A152" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A152" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B152" s="11"/>
     </row>
-    <row r="153" spans="1:2" ht="15.75">
+    <row r="153" spans="1:2">
       <c r="A153" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A153" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B153" s="11"/>
     </row>
-    <row r="154" spans="1:2" ht="15.75">
+    <row r="154" spans="1:2">
       <c r="A154" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A154" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B154" s="11"/>
     </row>
-    <row r="155" spans="1:2" ht="15.75">
+    <row r="155" spans="1:2">
       <c r="A155" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A155" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B155" s="11"/>
     </row>
-    <row r="156" spans="1:2" ht="15.75">
+    <row r="156" spans="1:2">
       <c r="A156" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A156" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B156" s="11"/>
     </row>
-    <row r="157" spans="1:2" ht="15.75">
+    <row r="157" spans="1:2">
       <c r="A157" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A157" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B157" s="11"/>
     </row>
-    <row r="158" spans="1:2" ht="15.75">
+    <row r="158" spans="1:2">
       <c r="A158" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A158" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B158" s="11"/>
     </row>
-    <row r="159" spans="1:2" ht="15.75">
+    <row r="159" spans="1:2">
       <c r="A159" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A159" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B159" s="11"/>
     </row>
-    <row r="160" spans="1:2" ht="15.75">
+    <row r="160" spans="1:2">
       <c r="A160" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A160" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B160" s="11"/>
     </row>
-    <row r="161" spans="1:2" ht="15.75">
+    <row r="161" spans="1:2">
       <c r="A161" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A161" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B161" s="11"/>
     </row>
-    <row r="162" spans="1:2" ht="15.75">
+    <row r="162" spans="1:2">
       <c r="A162" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A162" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B162" s="11"/>
     </row>
-    <row r="163" spans="1:2" ht="15.75">
+    <row r="163" spans="1:2">
       <c r="A163" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A163" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B163" s="11"/>
     </row>
-    <row r="164" spans="1:2" ht="15.75">
+    <row r="164" spans="1:2">
       <c r="A164" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A164" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B164" s="11"/>
     </row>
-    <row r="165" spans="1:2" ht="15.75">
+    <row r="165" spans="1:2">
       <c r="A165" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A165" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B165" s="11"/>
     </row>
-    <row r="166" spans="1:2" ht="15.75">
+    <row r="166" spans="1:2">
       <c r="A166" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A166" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B166" s="11"/>
     </row>
-    <row r="167" spans="1:2" ht="15.75">
+    <row r="167" spans="1:2">
       <c r="A167" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A167" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B167" s="11"/>
     </row>
-    <row r="168" spans="1:2" ht="15.75">
+    <row r="168" spans="1:2">
       <c r="A168" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A168" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B168" s="11"/>
     </row>
-    <row r="169" spans="1:2" ht="15.75">
+    <row r="169" spans="1:2">
       <c r="A169" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A169" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B169" s="11"/>
     </row>
-    <row r="170" spans="1:2" ht="15.75">
+    <row r="170" spans="1:2">
       <c r="A170" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A170" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B170" s="11"/>
     </row>
-    <row r="171" spans="1:2" ht="15.75">
+    <row r="171" spans="1:2">
       <c r="A171" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A171" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B171" s="11"/>
     </row>
-    <row r="172" spans="1:2" ht="15.75">
+    <row r="172" spans="1:2">
       <c r="A172" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A172" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B172" s="11"/>
     </row>
-    <row r="173" spans="1:2" ht="15.75">
+    <row r="173" spans="1:2">
       <c r="A173" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A173" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B173" s="11"/>
     </row>
-    <row r="174" spans="1:2" ht="15.75">
+    <row r="174" spans="1:2">
       <c r="A174" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A174" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B174" s="11"/>
     </row>
-    <row r="175" spans="1:2" ht="15.75">
+    <row r="175" spans="1:2">
       <c r="A175" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A175" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B175" s="11"/>
     </row>
-    <row r="176" spans="1:2" ht="15.75">
+    <row r="176" spans="1:2">
       <c r="A176" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A176" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B176" s="11"/>
     </row>
-    <row r="177" spans="1:2" ht="15.75">
+    <row r="177" spans="1:2">
       <c r="A177" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A177" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B177" s="11"/>
     </row>
-    <row r="178" spans="1:2" ht="15.75">
+    <row r="178" spans="1:2">
       <c r="A178" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A178" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B178" s="11"/>
     </row>
-    <row r="179" spans="1:2" ht="15.75">
+    <row r="179" spans="1:2">
       <c r="A179" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A179" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B179" s="11"/>
     </row>
-    <row r="180" spans="1:2" ht="15.75">
+    <row r="180" spans="1:2">
       <c r="A180" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A180" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B180" s="11"/>
     </row>
-    <row r="181" spans="1:2" ht="15.75">
+    <row r="181" spans="1:2">
       <c r="A181" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A181" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B181" s="11"/>
     </row>
-    <row r="182" spans="1:2" ht="15.75">
+    <row r="182" spans="1:2">
       <c r="A182" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A182" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B182" s="11"/>
     </row>
-    <row r="183" spans="1:2" ht="15.75">
+    <row r="183" spans="1:2">
       <c r="A183" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A183" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B183" s="11"/>
     </row>
-    <row r="184" spans="1:2" ht="15.75">
+    <row r="184" spans="1:2">
       <c r="A184" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A184" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B184" s="11"/>
     </row>
-    <row r="185" spans="1:2" ht="15.75">
+    <row r="185" spans="1:2">
       <c r="A185" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A185" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B185" s="11"/>
     </row>
-    <row r="186" spans="1:2" ht="15.75">
+    <row r="186" spans="1:2">
       <c r="A186" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A186" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B186" s="11"/>
     </row>
-    <row r="187" spans="1:2" ht="15.75">
+    <row r="187" spans="1:2">
       <c r="A187" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A187" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B187" s="11"/>
     </row>
-    <row r="188" spans="1:2" ht="15.75">
+    <row r="188" spans="1:2">
       <c r="A188" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A188" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B188" s="11"/>
     </row>
-    <row r="189" spans="1:2" ht="15.75">
+    <row r="189" spans="1:2">
       <c r="A189" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A189" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B189" s="11"/>
     </row>
-    <row r="190" spans="1:2" ht="15.75">
+    <row r="190" spans="1:2">
       <c r="A190" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A190" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B190" s="11"/>
     </row>
-    <row r="191" spans="1:2" ht="15.75">
+    <row r="191" spans="1:2">
       <c r="A191" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A191" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B191" s="11"/>
     </row>
-    <row r="192" spans="1:2" ht="15.75">
+    <row r="192" spans="1:2">
       <c r="A192" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A192" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B192" s="11"/>
     </row>
-    <row r="193" spans="1:2" ht="15.75">
+    <row r="193" spans="1:2">
       <c r="A193" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A193" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B193" s="11"/>
     </row>
-    <row r="194" spans="1:2" ht="15.75">
+    <row r="194" spans="1:2">
       <c r="A194" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A194" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B194" s="11"/>
     </row>
-    <row r="195" spans="1:2" ht="15.75">
+    <row r="195" spans="1:2">
       <c r="A195" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A195" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B195" s="11"/>
     </row>
-    <row r="196" spans="1:2" ht="15.75">
+    <row r="196" spans="1:2">
       <c r="A196" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A196" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B196" s="11"/>
     </row>
-    <row r="197" spans="1:2" ht="15.75">
+    <row r="197" spans="1:2">
       <c r="A197" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A197" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B197" s="11"/>
     </row>
-    <row r="198" spans="1:2" ht="15.75">
+    <row r="198" spans="1:2">
       <c r="A198" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A198" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B198" s="11"/>
     </row>
-    <row r="199" spans="1:2" ht="15.75">
+    <row r="199" spans="1:2">
       <c r="A199" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A199" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B199" s="11"/>
     </row>
-    <row r="200" spans="1:2" ht="15.75">
+    <row r="200" spans="1:2">
       <c r="A200" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A200" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B200" s="11"/>
     </row>
-    <row r="201" spans="1:2" ht="15.75">
+    <row r="201" spans="1:2">
       <c r="A201" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A201" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B201" s="11"/>
     </row>
-    <row r="202" spans="1:2" ht="15.75">
+    <row r="202" spans="1:2">
       <c r="A202" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A202" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B202" s="11"/>
     </row>
-    <row r="203" spans="1:2" ht="15.75">
+    <row r="203" spans="1:2">
       <c r="A203" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A203" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B203" s="11"/>
     </row>
-    <row r="204" spans="1:2" ht="15.75">
+    <row r="204" spans="1:2">
       <c r="A204" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A204" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B204" s="11"/>
     </row>
-    <row r="205" spans="1:2" ht="15.75">
+    <row r="205" spans="1:2">
       <c r="A205" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A205" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B205" s="11"/>
     </row>
-    <row r="206" spans="1:2" ht="15.75">
+    <row r="206" spans="1:2">
       <c r="A206" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A206" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B206" s="11"/>
     </row>
-    <row r="207" spans="1:2" ht="15.75">
+    <row r="207" spans="1:2">
       <c r="A207" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A207" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B207" s="11"/>
     </row>
-    <row r="208" spans="1:2" ht="15.75">
+    <row r="208" spans="1:2">
       <c r="A208" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A208" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B208" s="11"/>
     </row>
-    <row r="209" spans="1:2" ht="15.75">
+    <row r="209" spans="1:2">
       <c r="A209" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A209" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B209" s="11"/>
     </row>
-    <row r="210" spans="1:2" ht="15.75">
+    <row r="210" spans="1:2">
       <c r="A210" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A210" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B210" s="11"/>
     </row>
-    <row r="211" spans="1:2" ht="15.75">
+    <row r="211" spans="1:2">
       <c r="A211" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A211" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B211" s="11"/>
     </row>
-    <row r="212" spans="1:2" ht="15.75">
+    <row r="212" spans="1:2">
       <c r="A212" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A212" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B212" s="11"/>
     </row>
-    <row r="213" spans="1:2" ht="15.75">
+    <row r="213" spans="1:2">
       <c r="A213" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A213" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B213" s="11"/>
     </row>
-    <row r="214" spans="1:2" ht="15.75">
+    <row r="214" spans="1:2">
       <c r="A214" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A214" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B214" s="11"/>
     </row>
-    <row r="215" spans="1:2" ht="15.75">
+    <row r="215" spans="1:2">
       <c r="A215" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A215" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B215" s="11"/>
     </row>
-    <row r="216" spans="1:2" ht="15.75">
+    <row r="216" spans="1:2">
       <c r="A216" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A216" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B216" s="11"/>
     </row>
-    <row r="217" spans="1:2" ht="15.75">
+    <row r="217" spans="1:2">
       <c r="A217" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A217" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B217" s="11"/>
     </row>
-    <row r="218" spans="1:2" ht="15.75">
+    <row r="218" spans="1:2">
       <c r="A218" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A218" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B218" s="11"/>
     </row>
-    <row r="219" spans="1:2" ht="15.75">
+    <row r="219" spans="1:2">
       <c r="A219" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A219" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B219" s="11"/>
     </row>
-    <row r="220" spans="1:2" ht="15.75">
+    <row r="220" spans="1:2">
       <c r="A220" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A220" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B220" s="11"/>
     </row>
-    <row r="221" spans="1:2" ht="15.75">
+    <row r="221" spans="1:2">
       <c r="A221" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A221" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B221" s="11"/>
     </row>
-    <row r="222" spans="1:2" ht="15.75">
+    <row r="222" spans="1:2">
       <c r="A222" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A222" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B222" s="11"/>
     </row>
-    <row r="223" spans="1:2" ht="15.75">
+    <row r="223" spans="1:2">
       <c r="A223" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A223" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B223" s="11"/>
     </row>
-    <row r="224" spans="1:2" ht="15.75">
+    <row r="224" spans="1:2">
       <c r="A224" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A224" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B224" s="11"/>
     </row>
-    <row r="225" spans="1:2" ht="15.75">
+    <row r="225" spans="1:2">
       <c r="A225" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A225" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B225" s="11"/>
     </row>
-    <row r="226" spans="1:2" ht="15.75">
+    <row r="226" spans="1:2">
       <c r="A226" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A226" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B226" s="11"/>
     </row>
-    <row r="227" spans="1:2" ht="15.75">
+    <row r="227" spans="1:2">
       <c r="A227" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A227" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B227" s="11"/>
     </row>
-    <row r="228" spans="1:2" ht="15.75">
+    <row r="228" spans="1:2">
       <c r="A228" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A228" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B228" s="11"/>
     </row>
-    <row r="229" spans="1:2" ht="15.75">
+    <row r="229" spans="1:2">
       <c r="A229" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A229" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B229" s="11"/>
     </row>
-    <row r="230" spans="1:2" ht="15.75">
+    <row r="230" spans="1:2">
       <c r="A230" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A230" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B230" s="11"/>
     </row>
-    <row r="231" spans="1:2" ht="15.75">
+    <row r="231" spans="1:2">
       <c r="A231" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A231" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B231" s="11"/>
     </row>
-    <row r="232" spans="1:2" ht="15.75">
+    <row r="232" spans="1:2">
       <c r="A232" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A232" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B232" s="11"/>
     </row>
-    <row r="233" spans="1:2" ht="15.75">
+    <row r="233" spans="1:2">
       <c r="A233" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A233" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B233" s="11"/>
     </row>
-    <row r="234" spans="1:2" ht="15.75">
+    <row r="234" spans="1:2">
       <c r="A234" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A234" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B234" s="11"/>
     </row>
-    <row r="235" spans="1:2" ht="15.75">
+    <row r="235" spans="1:2">
       <c r="A235" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A235" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B235" s="11"/>
     </row>
-    <row r="236" spans="1:2" ht="15.75">
+    <row r="236" spans="1:2">
       <c r="A236" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A236" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B236" s="11"/>
     </row>
-    <row r="237" spans="1:2" ht="15.75">
+    <row r="237" spans="1:2">
       <c r="A237" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A237" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B237" s="11"/>
     </row>
-    <row r="238" spans="1:2" ht="15.75">
+    <row r="238" spans="1:2">
       <c r="A238" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A238" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B238" s="11"/>
     </row>
-    <row r="239" spans="1:2" ht="15.75">
+    <row r="239" spans="1:2">
       <c r="A239" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A239" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B239" s="11"/>
     </row>
-    <row r="240" spans="1:2" ht="15.75">
+    <row r="240" spans="1:2">
       <c r="A240" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A240" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B240" s="11"/>
     </row>
-    <row r="241" spans="1:2" ht="15.75">
+    <row r="241" spans="1:2">
       <c r="A241" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A241" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B241" s="11"/>
     </row>
-    <row r="242" spans="1:2" ht="15.75">
+    <row r="242" spans="1:2">
       <c r="A242" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A242" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B242" s="11"/>
     </row>
-    <row r="243" spans="1:2" ht="15.75">
+    <row r="243" spans="1:2">
       <c r="A243" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A243" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B243" s="11"/>
     </row>
-    <row r="244" spans="1:2" ht="15.75">
+    <row r="244" spans="1:2">
       <c r="A244" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A244" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B244" s="11"/>
     </row>
-    <row r="245" spans="1:2" ht="15.75">
+    <row r="245" spans="1:2">
       <c r="A245" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A245" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B245" s="11"/>
     </row>
-    <row r="246" spans="1:2" ht="15.75">
+    <row r="246" spans="1:2">
       <c r="A246" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A246" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B246" s="11"/>
     </row>
-    <row r="247" spans="1:2" ht="15.75">
+    <row r="247" spans="1:2">
       <c r="A247" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A247" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B247" s="11"/>
     </row>
-    <row r="248" spans="1:2" ht="15.75">
+    <row r="248" spans="1:2">
       <c r="A248" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A248" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B248" s="11"/>
     </row>
-    <row r="249" spans="1:2" ht="15.75">
+    <row r="249" spans="1:2">
       <c r="A249" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A249" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B249" s="11"/>
     </row>
-    <row r="250" spans="1:2" ht="15.75">
+    <row r="250" spans="1:2">
       <c r="A250" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A250" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B250" s="11"/>
     </row>
-    <row r="251" spans="1:2" ht="15.75">
+    <row r="251" spans="1:2">
       <c r="A251" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A251" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B251" s="11"/>
     </row>
-    <row r="252" spans="1:2" ht="15.75">
+    <row r="252" spans="1:2">
       <c r="A252" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A252" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B252" s="11"/>
     </row>
-    <row r="253" spans="1:2" ht="15.75">
+    <row r="253" spans="1:2">
       <c r="A253" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A253" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B253" s="11"/>
     </row>
-    <row r="254" spans="1:2" ht="15.75">
+    <row r="254" spans="1:2">
       <c r="A254" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A254" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B254" s="11"/>
     </row>
-    <row r="255" spans="1:2" ht="15.75">
+    <row r="255" spans="1:2">
       <c r="A255" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A255" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B255" s="11"/>
     </row>
-    <row r="256" spans="1:2" ht="15.75">
+    <row r="256" spans="1:2">
       <c r="A256" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A256" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B256" s="11"/>
     </row>
-    <row r="257" spans="1:2" ht="15.75">
+    <row r="257" spans="1:2">
       <c r="A257" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A257" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B257" s="11"/>
     </row>
-    <row r="258" spans="1:2" ht="15.75">
+    <row r="258" spans="1:2">
       <c r="A258" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A258" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B258" s="11"/>
     </row>
-    <row r="259" spans="1:2" ht="15.75">
+    <row r="259" spans="1:2">
       <c r="A259" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A259" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B259" s="11"/>
     </row>
-    <row r="260" spans="1:2" ht="15.75">
+    <row r="260" spans="1:2">
       <c r="A260" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A260" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B260" s="11"/>
     </row>
-    <row r="261" spans="1:2" ht="15.75">
+    <row r="261" spans="1:2">
       <c r="A261" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A261" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B261" s="11"/>
     </row>
-    <row r="262" spans="1:2" ht="15.75">
+    <row r="262" spans="1:2">
       <c r="A262" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A262" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B262" s="11"/>
     </row>
-    <row r="263" spans="1:2" ht="15.75">
+    <row r="263" spans="1:2">
       <c r="A263" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A263" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B263" s="11"/>
     </row>
-    <row r="264" spans="1:2" ht="15.75">
+    <row r="264" spans="1:2">
       <c r="A264" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A264" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B264" s="11"/>
     </row>
-    <row r="265" spans="1:2" ht="15.75">
+    <row r="265" spans="1:2">
       <c r="A265" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A265" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B265" s="11"/>
     </row>
-    <row r="266" spans="1:2" ht="15.75">
+    <row r="266" spans="1:2">
       <c r="A266" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A266" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B266" s="11"/>
     </row>
-    <row r="267" spans="1:2" ht="15.75">
+    <row r="267" spans="1:2">
       <c r="A267" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A267" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B267" s="11"/>
     </row>
-    <row r="268" spans="1:2" ht="15.75">
+    <row r="268" spans="1:2">
       <c r="A268" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A268" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B268" s="11"/>
     </row>
-    <row r="269" spans="1:2" ht="15.75">
+    <row r="269" spans="1:2">
       <c r="A269" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A269" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B269" s="11"/>
     </row>
-    <row r="270" spans="1:2" ht="15.75">
+    <row r="270" spans="1:2">
       <c r="A270" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A270" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B270" s="11"/>
     </row>
-    <row r="271" spans="1:2" ht="15.75">
+    <row r="271" spans="1:2">
       <c r="A271" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A271" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B271" s="11"/>
     </row>
-    <row r="272" spans="1:2" ht="15.75">
+    <row r="272" spans="1:2">
       <c r="A272" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A272" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B272" s="11"/>
     </row>
-    <row r="273" spans="1:2" ht="15.75">
+    <row r="273" spans="1:2">
       <c r="A273" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A273" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B273" s="11"/>
     </row>
-    <row r="274" spans="1:2" ht="15.75">
+    <row r="274" spans="1:2">
       <c r="A274" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A274" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B274" s="11"/>
     </row>
-    <row r="275" spans="1:2" ht="15.75">
+    <row r="275" spans="1:2">
       <c r="A275" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A275" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B275" s="11"/>
     </row>
-    <row r="276" spans="1:2" ht="15.75">
+    <row r="276" spans="1:2">
       <c r="A276" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A276" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B276" s="11"/>
     </row>
-    <row r="277" spans="1:2" ht="15.75">
+    <row r="277" spans="1:2">
       <c r="A277" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A277" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B277" s="11"/>
     </row>
-    <row r="278" spans="1:2" ht="15.75">
+    <row r="278" spans="1:2">
       <c r="A278" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A278" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B278" s="11"/>
     </row>
-    <row r="279" spans="1:2" ht="15.75">
+    <row r="279" spans="1:2">
       <c r="A279" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A279" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B279" s="11"/>
     </row>
-    <row r="280" spans="1:2" ht="15.75">
+    <row r="280" spans="1:2">
       <c r="A280" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A280" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B280" s="11"/>
     </row>
-    <row r="281" spans="1:2" ht="15.75">
+    <row r="281" spans="1:2">
       <c r="A281" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A281" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B281" s="11"/>
     </row>
-    <row r="282" spans="1:2" ht="15.75">
+    <row r="282" spans="1:2">
       <c r="A282" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A282" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B282" s="11"/>
     </row>
-    <row r="283" spans="1:2" ht="15.75">
+    <row r="283" spans="1:2">
       <c r="A283" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A283" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B283" s="11"/>
     </row>
-    <row r="284" spans="1:2" ht="15.75">
+    <row r="284" spans="1:2">
       <c r="A284" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A284" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B284" s="11"/>
     </row>
-    <row r="285" spans="1:2" ht="15.75">
+    <row r="285" spans="1:2">
       <c r="A285" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A285" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B285" s="11"/>
     </row>
-    <row r="286" spans="1:2" ht="15.75">
+    <row r="286" spans="1:2">
       <c r="A286" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A286" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B286" s="11"/>
     </row>
-    <row r="287" spans="1:2" ht="15.75">
+    <row r="287" spans="1:2">
       <c r="A287" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A287" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B287" s="11"/>
     </row>
-    <row r="288" spans="1:2" ht="15.75">
+    <row r="288" spans="1:2">
       <c r="A288" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A288" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B288" s="11"/>
     </row>
-    <row r="289" spans="1:2" ht="15.75">
+    <row r="289" spans="1:2">
       <c r="A289" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A289" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B289" s="11"/>
     </row>
-    <row r="290" spans="1:2" ht="15.75">
+    <row r="290" spans="1:2">
       <c r="A290" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A290" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B290" s="11"/>
     </row>
-    <row r="291" spans="1:2" ht="15.75">
+    <row r="291" spans="1:2">
       <c r="A291" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A291" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B291" s="11"/>
     </row>
-    <row r="292" spans="1:2" ht="15.75">
+    <row r="292" spans="1:2">
       <c r="A292" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A292" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B292" s="11"/>
     </row>
-    <row r="293" spans="1:2" ht="15.75">
+    <row r="293" spans="1:2">
       <c r="A293" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A293" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B293" s="11"/>
     </row>
-    <row r="294" spans="1:2" ht="15.75">
+    <row r="294" spans="1:2">
       <c r="A294" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A294" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B294" s="11"/>
     </row>
-    <row r="295" spans="1:2" ht="15.75">
+    <row r="295" spans="1:2">
       <c r="A295" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A295" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B295" s="11"/>
     </row>
-    <row r="296" spans="1:2" ht="15.75">
+    <row r="296" spans="1:2">
       <c r="A296" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A296" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B296" s="11"/>
     </row>
-    <row r="297" spans="1:2" ht="15.75">
+    <row r="297" spans="1:2">
       <c r="A297" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A297" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B297" s="11"/>
     </row>
-    <row r="298" spans="1:2" ht="15.75">
+    <row r="298" spans="1:2">
       <c r="A298" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A298" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B298" s="11"/>
     </row>
-    <row r="299" spans="1:2" ht="15.75">
+    <row r="299" spans="1:2">
       <c r="A299" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A299" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B299" s="11"/>
     </row>
-    <row r="300" spans="1:2" ht="15.75">
+    <row r="300" spans="1:2">
       <c r="A300" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A300" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B300" s="11"/>
     </row>
-    <row r="301" spans="1:2" ht="15.75">
+    <row r="301" spans="1:2">
       <c r="A301" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A301" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B301" s="11"/>
     </row>
-    <row r="302" spans="1:2" ht="15.75">
+    <row r="302" spans="1:2">
       <c r="A302" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A302" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B302" s="11"/>
     </row>
-    <row r="303" spans="1:2" ht="15.75">
+    <row r="303" spans="1:2">
       <c r="A303" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A303" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B303" s="11"/>
     </row>
-    <row r="304" spans="1:2" ht="15.75">
+    <row r="304" spans="1:2">
       <c r="A304" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A304" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B304" s="11"/>
     </row>
-    <row r="305" spans="1:2" ht="15.75">
+    <row r="305" spans="1:2">
       <c r="A305" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A305" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B305" s="11"/>
     </row>
-    <row r="306" spans="1:2" ht="15.75">
+    <row r="306" spans="1:2">
       <c r="A306" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A306" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B306" s="11"/>
     </row>
-    <row r="307" spans="1:2" ht="15.75">
+    <row r="307" spans="1:2">
       <c r="A307" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A307" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B307" s="11"/>
     </row>
-    <row r="308" spans="1:2" ht="15.75">
+    <row r="308" spans="1:2">
       <c r="A308" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A308" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B308" s="11"/>
     </row>
-    <row r="309" spans="1:2" ht="15.75">
+    <row r="309" spans="1:2">
       <c r="A309" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A309" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B309" s="11"/>
     </row>
-    <row r="310" spans="1:2" ht="15.75">
+    <row r="310" spans="1:2">
       <c r="A310" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A310" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B310" s="11"/>
     </row>
-    <row r="311" spans="1:2" ht="15.75">
+    <row r="311" spans="1:2">
       <c r="A311" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A311" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B311" s="11"/>
     </row>
-    <row r="312" spans="1:2" ht="15.75">
+    <row r="312" spans="1:2">
       <c r="A312" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A312" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B312" s="11"/>
     </row>
-    <row r="313" spans="1:2" ht="15.75">
+    <row r="313" spans="1:2">
       <c r="A313" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A313" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B313" s="11"/>
     </row>
-    <row r="314" spans="1:2" ht="15.75">
+    <row r="314" spans="1:2">
       <c r="A314" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A314" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B314" s="11"/>
     </row>
-    <row r="315" spans="1:2" ht="15.75">
+    <row r="315" spans="1:2">
       <c r="A315" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A315" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B315" s="11"/>
     </row>
-    <row r="316" spans="1:2" ht="15.75">
+    <row r="316" spans="1:2">
       <c r="A316" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A316" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B316" s="11"/>
     </row>
-    <row r="317" spans="1:2" ht="15.75">
+    <row r="317" spans="1:2">
       <c r="A317" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A317" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B317" s="11"/>
     </row>
-    <row r="318" spans="1:2" ht="15.75">
+    <row r="318" spans="1:2">
       <c r="A318" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A318" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B318" s="11"/>
     </row>
-    <row r="319" spans="1:2" ht="15.75">
+    <row r="319" spans="1:2">
       <c r="A319" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A319" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B319" s="11"/>
     </row>
-    <row r="320" spans="1:2" ht="15.75">
+    <row r="320" spans="1:2">
       <c r="A320" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A320" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B320" s="11"/>
     </row>
-    <row r="321" spans="1:2" ht="15.75">
+    <row r="321" spans="1:2">
       <c r="A321" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A321" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B321" s="11"/>
     </row>
-    <row r="322" spans="1:2" ht="15.75">
+    <row r="322" spans="1:2">
       <c r="A322" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A322" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B322" s="11"/>
     </row>
-    <row r="323" spans="1:2" ht="15.75">
+    <row r="323" spans="1:2">
       <c r="A323" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A323" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B323" s="11"/>
     </row>
-    <row r="324" spans="1:2" ht="15.75">
+    <row r="324" spans="1:2">
       <c r="A324" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A324" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B324" s="11"/>
     </row>
-    <row r="325" spans="1:2" ht="15.75">
+    <row r="325" spans="1:2">
       <c r="A325" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A325" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B325" s="11"/>
     </row>
-    <row r="326" spans="1:2" ht="15.75">
+    <row r="326" spans="1:2">
       <c r="A326" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A326" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B326" s="11"/>
     </row>
-    <row r="327" spans="1:2" ht="15.75">
+    <row r="327" spans="1:2">
       <c r="A327" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A327" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B327" s="11"/>
     </row>
-    <row r="328" spans="1:2" ht="15.75">
+    <row r="328" spans="1:2">
       <c r="A328" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A328" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B328" s="11"/>
     </row>
-    <row r="329" spans="1:2" ht="15.75">
+    <row r="329" spans="1:2">
       <c r="A329" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A329" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B329" s="11"/>
     </row>
-    <row r="330" spans="1:2" ht="15.75">
+    <row r="330" spans="1:2">
       <c r="A330" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A330" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B330" s="11"/>
     </row>
-    <row r="331" spans="1:2" ht="15.75">
+    <row r="331" spans="1:2">
       <c r="A331" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A331" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B331" s="11"/>
     </row>
-    <row r="332" spans="1:2" ht="15.75">
+    <row r="332" spans="1:2">
       <c r="A332" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A332" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B332" s="11"/>
     </row>
-    <row r="333" spans="1:2" ht="15.75">
+    <row r="333" spans="1:2">
       <c r="A333" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A333" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B333" s="11"/>
     </row>
-    <row r="334" spans="1:2" ht="15.75">
+    <row r="334" spans="1:2">
       <c r="A334" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A334" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B334" s="11"/>
     </row>
-    <row r="335" spans="1:2" ht="15.75">
+    <row r="335" spans="1:2">
       <c r="A335" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A335" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B335" s="11"/>
     </row>
-    <row r="336" spans="1:2" ht="15.75">
+    <row r="336" spans="1:2">
       <c r="A336" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A336" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B336" s="11"/>
     </row>
-    <row r="337" spans="1:2" ht="15.75">
+    <row r="337" spans="1:2">
       <c r="A337" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A337" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B337" s="11"/>
     </row>
-    <row r="338" spans="1:2" ht="15.75">
+    <row r="338" spans="1:2">
       <c r="A338" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A338" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B338" s="11"/>
     </row>
-    <row r="339" spans="1:2" ht="15.75">
+    <row r="339" spans="1:2">
       <c r="A339" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A339" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B339" s="11"/>
     </row>
-    <row r="340" spans="1:2" ht="15.75">
+    <row r="340" spans="1:2">
       <c r="A340" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A340" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B340" s="11"/>
     </row>
-    <row r="341" spans="1:2" ht="15.75">
+    <row r="341" spans="1:2">
       <c r="A341" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A341" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B341" s="11"/>
     </row>
-    <row r="342" spans="1:2" ht="15.75">
+    <row r="342" spans="1:2">
       <c r="A342" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A342" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B342" s="11"/>
     </row>
-    <row r="343" spans="1:2" ht="15.75">
+    <row r="343" spans="1:2">
       <c r="A343" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A343" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B343" s="11"/>
     </row>
-    <row r="344" spans="1:2" ht="15.75">
+    <row r="344" spans="1:2">
       <c r="A344" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A344" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B344" s="11"/>
     </row>
-    <row r="345" spans="1:2" ht="15.75">
+    <row r="345" spans="1:2">
       <c r="A345" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A345" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B345" s="11"/>
     </row>
-    <row r="346" spans="1:2" ht="15.75">
+    <row r="346" spans="1:2">
       <c r="A346" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A346" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B346" s="11"/>
     </row>
-    <row r="347" spans="1:2" ht="15.75">
+    <row r="347" spans="1:2">
       <c r="A347" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A347" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B347" s="11"/>
     </row>
-    <row r="348" spans="1:2" ht="15.75">
+    <row r="348" spans="1:2">
       <c r="A348" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A348" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B348" s="11"/>
     </row>
-    <row r="349" spans="1:2" ht="15.75">
+    <row r="349" spans="1:2">
       <c r="A349" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A349" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B349" s="11"/>
     </row>
-    <row r="350" spans="1:2" ht="15.75">
+    <row r="350" spans="1:2">
       <c r="A350" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A350" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B350" s="11"/>
     </row>
-    <row r="351" spans="1:2" ht="15.75">
+    <row r="351" spans="1:2">
       <c r="A351" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A351" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B351" s="11"/>
     </row>
-    <row r="352" spans="1:2" ht="15.75">
+    <row r="352" spans="1:2">
       <c r="A352" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A352" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B352" s="11"/>
     </row>
-    <row r="353" spans="1:2" ht="15.75">
+    <row r="353" spans="1:2">
       <c r="A353" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A353" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B353" s="11"/>
     </row>
-    <row r="354" spans="1:2" ht="15.75">
+    <row r="354" spans="1:2">
       <c r="A354" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A354" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B354" s="11"/>
     </row>
-    <row r="355" spans="1:2" ht="15.75">
+    <row r="355" spans="1:2">
       <c r="A355" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A355" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B355" s="11"/>
     </row>
-    <row r="356" spans="1:2" ht="15.75">
+    <row r="356" spans="1:2">
       <c r="A356" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A356" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B356" s="11"/>
     </row>
-    <row r="357" spans="1:2" ht="15.75">
+    <row r="357" spans="1:2">
       <c r="A357" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A357" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B357" s="11"/>
     </row>
-    <row r="358" spans="1:2" ht="15.75">
+    <row r="358" spans="1:2">
       <c r="A358" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A358" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B358" s="11"/>
     </row>
-    <row r="359" spans="1:2" ht="15.75">
+    <row r="359" spans="1:2">
       <c r="A359" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A359" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B359" s="11"/>
     </row>
-    <row r="360" spans="1:2" ht="15.75">
+    <row r="360" spans="1:2">
       <c r="A360" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A360" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B360" s="11"/>
     </row>
-    <row r="361" spans="1:2" ht="15.75">
+    <row r="361" spans="1:2">
       <c r="A361" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A361" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B361" s="11"/>
     </row>
-    <row r="362" spans="1:2" ht="15.75">
+    <row r="362" spans="1:2">
       <c r="A362" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A362" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B362" s="11"/>
     </row>
-    <row r="363" spans="1:2" ht="15.75">
+    <row r="363" spans="1:2">
       <c r="A363" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A363" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B363" s="11"/>
     </row>
-    <row r="364" spans="1:2" ht="15.75">
+    <row r="364" spans="1:2">
       <c r="A364" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A364" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B364" s="11"/>
     </row>
-    <row r="365" spans="1:2" ht="15.75">
+    <row r="365" spans="1:2">
       <c r="A365" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A365" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B365" s="11"/>
     </row>
-    <row r="366" spans="1:2" ht="15.75">
+    <row r="366" spans="1:2">
       <c r="A366" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A366" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B366" s="11"/>
     </row>
-    <row r="367" spans="1:2" ht="15.75">
+    <row r="367" spans="1:2">
       <c r="A367" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A367" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B367" s="11"/>
     </row>
-    <row r="368" spans="1:2" ht="15.75">
+    <row r="368" spans="1:2">
       <c r="A368" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A368" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B368" s="11"/>
     </row>
-    <row r="369" spans="1:2" ht="15.75">
+    <row r="369" spans="1:2">
       <c r="A369" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A369" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B369" s="11"/>
     </row>
-    <row r="370" spans="1:2" ht="15.75">
+    <row r="370" spans="1:2">
       <c r="A370" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A370" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B370" s="11"/>
     </row>
-    <row r="371" spans="1:2" ht="15.75">
+    <row r="371" spans="1:2">
       <c r="A371" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A371" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B371" s="11"/>
     </row>
-    <row r="372" spans="1:2" ht="15.75">
+    <row r="372" spans="1:2">
       <c r="A372" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A372" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
       <c r="B372" s="11"/>
     </row>
-    <row r="373" spans="1:2" ht="15.75">
+    <row r="373" spans="1:2">
       <c r="A373" s="11" t="str" cm="1">
         <f t="array" aca="1" ref="A373" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
@@ -5290,9 +5385,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5442,22 +5540,42 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BFFBC263-7940-428F-B07F-40541512810A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B4AB300-1AD8-4206-8442-7A9566BB2153}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECAB4748-A584-473C-8F10-3C6A475AC320}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECAB4748-A584-473C-8F10-3C6A475AC320}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="7905e2ae-5b6b-4412-a0c1-c9990e3e5828"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B4AB300-1AD8-4206-8442-7A9566BB2153}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BFFBC263-7940-428F-B07F-40541512810A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/trackers/Dataset Tracker - Cleaned.xlsx
+++ b/trackers/Dataset Tracker - Cleaned.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gurdeep/Documents/tb2/DSMP/G32-Butterfly-Data/trackers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD6E170-50F9-4848-AC16-FB1E01B88041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8981315-1C4B-1D4B-B12B-1D5E793ED398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="860" yWindow="3480" windowWidth="51200" windowHeight="28800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>README</t>
   </si>
@@ -162,6 +162,15 @@
   <si>
     <t>Quarters were along columns, changed that to rows. -1 values in count columns mean that the data is missing and 0 means that count was insignificant (denoted by 'c' in oroginal raw dataset).</t>
   </si>
+  <si>
+    <t>Vehicles with a Statutory Off Road Notification by postcode district and body type United Kingdom</t>
+  </si>
+  <si>
+    <t>DSMP/Datasets/Cleaned/Vehicles Dataset/Statutory Off Road Notification vehicles (SORN)/vehicles_with_a_sorn_by_postcode_district_and_body_type.csv</t>
+  </si>
+  <si>
+    <t>notebooks/preprocessing/Preprocessing - SORN Vehicles by postcode district and body type.ipynb</t>
+  </si>
 </sst>
 </file>
 
@@ -182,45 +191,53 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="24"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="24"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -233,17 +250,19 @@
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <charset val="1"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -256,22 +275,26 @@
       <sz val="24"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -638,7 +661,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -696,6 +719,81 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -777,79 +875,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1188,46 +1217,46 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="25"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="50"/>
     </row>
     <row r="2" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A2" s="26"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="28"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="53"/>
     </row>
     <row r="3" spans="1:18" ht="18.75" customHeight="1">
       <c r="A3" s="1"/>
@@ -1250,68 +1279,68 @@
       <c r="R3" s="1"/>
     </row>
     <row r="4" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="34"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="58"/>
+      <c r="Q4" s="58"/>
+      <c r="R4" s="59"/>
     </row>
     <row r="5" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="37"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="61"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="62"/>
     </row>
     <row r="6" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A6" s="38"/>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="39"/>
-      <c r="R6" s="40"/>
+      <c r="A6" s="63"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="64"/>
+      <c r="O6" s="64"/>
+      <c r="P6" s="64"/>
+      <c r="Q6" s="64"/>
+      <c r="R6" s="65"/>
     </row>
     <row r="7" spans="1:18" ht="18.75" customHeight="1">
       <c r="A7" s="2"/>
@@ -1334,328 +1363,328 @@
       <c r="R7" s="2"/>
     </row>
     <row r="8" spans="1:18" ht="23.25" customHeight="1">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="31"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="55"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="55"/>
+      <c r="P8" s="55"/>
+      <c r="Q8" s="55"/>
+      <c r="R8" s="56"/>
     </row>
     <row r="9" spans="1:18" ht="15" customHeight="1">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
-      <c r="N9" s="42"/>
-      <c r="O9" s="42"/>
-      <c r="P9" s="42"/>
-      <c r="Q9" s="42"/>
-      <c r="R9" s="43"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
+      <c r="L9" s="67"/>
+      <c r="M9" s="67"/>
+      <c r="N9" s="67"/>
+      <c r="O9" s="67"/>
+      <c r="P9" s="67"/>
+      <c r="Q9" s="67"/>
+      <c r="R9" s="68"/>
     </row>
     <row r="10" spans="1:18" ht="15" customHeight="1">
-      <c r="A10" s="44"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="45"/>
-      <c r="N10" s="45"/>
-      <c r="O10" s="45"/>
-      <c r="P10" s="45"/>
-      <c r="Q10" s="45"/>
-      <c r="R10" s="46"/>
+      <c r="A10" s="69"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="70"/>
+      <c r="N10" s="70"/>
+      <c r="O10" s="70"/>
+      <c r="P10" s="70"/>
+      <c r="Q10" s="70"/>
+      <c r="R10" s="71"/>
     </row>
     <row r="11" spans="1:18" ht="15" customHeight="1">
-      <c r="A11" s="44"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="45"/>
-      <c r="N11" s="45"/>
-      <c r="O11" s="45"/>
-      <c r="P11" s="45"/>
-      <c r="Q11" s="45"/>
-      <c r="R11" s="46"/>
+      <c r="A11" s="69"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="70"/>
+      <c r="N11" s="70"/>
+      <c r="O11" s="70"/>
+      <c r="P11" s="70"/>
+      <c r="Q11" s="70"/>
+      <c r="R11" s="71"/>
     </row>
     <row r="12" spans="1:18" ht="15" customHeight="1">
-      <c r="A12" s="44"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="45"/>
-      <c r="M12" s="45"/>
-      <c r="N12" s="45"/>
-      <c r="O12" s="45"/>
-      <c r="P12" s="45"/>
-      <c r="Q12" s="45"/>
-      <c r="R12" s="46"/>
+      <c r="A12" s="69"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="70"/>
+      <c r="N12" s="70"/>
+      <c r="O12" s="70"/>
+      <c r="P12" s="70"/>
+      <c r="Q12" s="70"/>
+      <c r="R12" s="71"/>
     </row>
     <row r="13" spans="1:18" ht="15" customHeight="1">
-      <c r="A13" s="44"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="45"/>
-      <c r="M13" s="45"/>
-      <c r="N13" s="45"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="46"/>
+      <c r="A13" s="69"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="70"/>
+      <c r="O13" s="70"/>
+      <c r="P13" s="70"/>
+      <c r="Q13" s="70"/>
+      <c r="R13" s="71"/>
     </row>
     <row r="14" spans="1:18" ht="15" customHeight="1">
-      <c r="A14" s="44"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="45"/>
-      <c r="M14" s="45"/>
-      <c r="N14" s="45"/>
-      <c r="O14" s="45"/>
-      <c r="P14" s="45"/>
-      <c r="Q14" s="45"/>
-      <c r="R14" s="46"/>
+      <c r="A14" s="69"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="70"/>
+      <c r="L14" s="70"/>
+      <c r="M14" s="70"/>
+      <c r="N14" s="70"/>
+      <c r="O14" s="70"/>
+      <c r="P14" s="70"/>
+      <c r="Q14" s="70"/>
+      <c r="R14" s="71"/>
     </row>
     <row r="15" spans="1:18" ht="15" customHeight="1">
-      <c r="A15" s="44"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="45"/>
-      <c r="M15" s="45"/>
-      <c r="N15" s="45"/>
-      <c r="O15" s="45"/>
-      <c r="P15" s="45"/>
-      <c r="Q15" s="45"/>
-      <c r="R15" s="46"/>
+      <c r="A15" s="69"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="70"/>
+      <c r="M15" s="70"/>
+      <c r="N15" s="70"/>
+      <c r="O15" s="70"/>
+      <c r="P15" s="70"/>
+      <c r="Q15" s="70"/>
+      <c r="R15" s="71"/>
     </row>
     <row r="16" spans="1:18" ht="15" customHeight="1">
-      <c r="A16" s="44"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="45"/>
-      <c r="O16" s="45"/>
-      <c r="P16" s="45"/>
-      <c r="Q16" s="45"/>
-      <c r="R16" s="46"/>
+      <c r="A16" s="69"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="70"/>
+      <c r="N16" s="70"/>
+      <c r="O16" s="70"/>
+      <c r="P16" s="70"/>
+      <c r="Q16" s="70"/>
+      <c r="R16" s="71"/>
     </row>
     <row r="17" spans="1:18" ht="15" customHeight="1">
-      <c r="A17" s="44"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="45"/>
-      <c r="M17" s="45"/>
-      <c r="N17" s="45"/>
-      <c r="O17" s="45"/>
-      <c r="P17" s="45"/>
-      <c r="Q17" s="45"/>
-      <c r="R17" s="46"/>
+      <c r="A17" s="69"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="70"/>
+      <c r="L17" s="70"/>
+      <c r="M17" s="70"/>
+      <c r="N17" s="70"/>
+      <c r="O17" s="70"/>
+      <c r="P17" s="70"/>
+      <c r="Q17" s="70"/>
+      <c r="R17" s="71"/>
     </row>
     <row r="18" spans="1:18" ht="15" customHeight="1">
-      <c r="A18" s="44"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="45"/>
-      <c r="M18" s="45"/>
-      <c r="N18" s="45"/>
-      <c r="O18" s="45"/>
-      <c r="P18" s="45"/>
-      <c r="Q18" s="45"/>
-      <c r="R18" s="46"/>
+      <c r="A18" s="69"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="70"/>
+      <c r="K18" s="70"/>
+      <c r="L18" s="70"/>
+      <c r="M18" s="70"/>
+      <c r="N18" s="70"/>
+      <c r="O18" s="70"/>
+      <c r="P18" s="70"/>
+      <c r="Q18" s="70"/>
+      <c r="R18" s="71"/>
     </row>
     <row r="19" spans="1:18" ht="15" customHeight="1">
-      <c r="A19" s="44"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="45"/>
-      <c r="M19" s="45"/>
-      <c r="N19" s="45"/>
-      <c r="O19" s="45"/>
-      <c r="P19" s="45"/>
-      <c r="Q19" s="45"/>
-      <c r="R19" s="46"/>
+      <c r="A19" s="69"/>
+      <c r="B19" s="70"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="70"/>
+      <c r="L19" s="70"/>
+      <c r="M19" s="70"/>
+      <c r="N19" s="70"/>
+      <c r="O19" s="70"/>
+      <c r="P19" s="70"/>
+      <c r="Q19" s="70"/>
+      <c r="R19" s="71"/>
     </row>
     <row r="20" spans="1:18" ht="15" customHeight="1">
-      <c r="A20" s="44"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="45"/>
-      <c r="M20" s="45"/>
-      <c r="N20" s="45"/>
-      <c r="O20" s="45"/>
-      <c r="P20" s="45"/>
-      <c r="Q20" s="45"/>
-      <c r="R20" s="46"/>
+      <c r="A20" s="69"/>
+      <c r="B20" s="70"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="70"/>
+      <c r="M20" s="70"/>
+      <c r="N20" s="70"/>
+      <c r="O20" s="70"/>
+      <c r="P20" s="70"/>
+      <c r="Q20" s="70"/>
+      <c r="R20" s="71"/>
     </row>
     <row r="21" spans="1:18" ht="15" customHeight="1">
-      <c r="A21" s="44"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="45"/>
-      <c r="M21" s="45"/>
-      <c r="N21" s="45"/>
-      <c r="O21" s="45"/>
-      <c r="P21" s="45"/>
-      <c r="Q21" s="45"/>
-      <c r="R21" s="46"/>
+      <c r="A21" s="69"/>
+      <c r="B21" s="70"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="70"/>
+      <c r="I21" s="70"/>
+      <c r="J21" s="70"/>
+      <c r="K21" s="70"/>
+      <c r="L21" s="70"/>
+      <c r="M21" s="70"/>
+      <c r="N21" s="70"/>
+      <c r="O21" s="70"/>
+      <c r="P21" s="70"/>
+      <c r="Q21" s="70"/>
+      <c r="R21" s="71"/>
     </row>
     <row r="22" spans="1:18">
-      <c r="A22" s="44"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="45"/>
-      <c r="M22" s="45"/>
-      <c r="N22" s="45"/>
-      <c r="O22" s="45"/>
-      <c r="P22" s="45"/>
-      <c r="Q22" s="45"/>
-      <c r="R22" s="46"/>
+      <c r="A22" s="69"/>
+      <c r="B22" s="70"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="70"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="70"/>
+      <c r="L22" s="70"/>
+      <c r="M22" s="70"/>
+      <c r="N22" s="70"/>
+      <c r="O22" s="70"/>
+      <c r="P22" s="70"/>
+      <c r="Q22" s="70"/>
+      <c r="R22" s="71"/>
     </row>
     <row r="23" spans="1:18">
-      <c r="A23" s="47"/>
-      <c r="B23" s="48"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="48"/>
-      <c r="N23" s="48"/>
-      <c r="O23" s="48"/>
-      <c r="P23" s="48"/>
-      <c r="Q23" s="48"/>
-      <c r="R23" s="49"/>
+      <c r="A23" s="72"/>
+      <c r="B23" s="73"/>
+      <c r="C23" s="73"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="73"/>
+      <c r="H23" s="73"/>
+      <c r="I23" s="73"/>
+      <c r="J23" s="73"/>
+      <c r="K23" s="73"/>
+      <c r="L23" s="73"/>
+      <c r="M23" s="73"/>
+      <c r="N23" s="73"/>
+      <c r="O23" s="73"/>
+      <c r="P23" s="73"/>
+      <c r="Q23" s="73"/>
+      <c r="R23" s="74"/>
     </row>
     <row r="24" spans="1:18" ht="20.25" customHeight="1">
       <c r="A24" s="2"/>
@@ -1678,216 +1707,216 @@
       <c r="R24" s="2"/>
     </row>
     <row r="25" spans="1:18" ht="20">
-      <c r="A25" s="50" t="s">
+      <c r="A25" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="51"/>
-      <c r="L25" s="51"/>
-      <c r="M25" s="51"/>
-      <c r="N25" s="51"/>
-      <c r="O25" s="51"/>
-      <c r="P25" s="51"/>
-      <c r="Q25" s="51"/>
-      <c r="R25" s="52"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="42"/>
+      <c r="O25" s="42"/>
+      <c r="P25" s="42"/>
+      <c r="Q25" s="42"/>
+      <c r="R25" s="43"/>
     </row>
     <row r="26" spans="1:18" ht="18">
-      <c r="A26" s="53" t="s">
+      <c r="A26" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="54"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="54" t="s">
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="G26" s="54"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="54"/>
-      <c r="J26" s="54"/>
-      <c r="K26" s="54"/>
-      <c r="L26" s="54"/>
-      <c r="M26" s="54"/>
-      <c r="N26" s="54"/>
-      <c r="O26" s="54"/>
-      <c r="P26" s="54"/>
-      <c r="Q26" s="54"/>
-      <c r="R26" s="55"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="45"/>
+      <c r="O26" s="45"/>
+      <c r="P26" s="45"/>
+      <c r="Q26" s="45"/>
+      <c r="R26" s="46"/>
     </row>
     <row r="27" spans="1:18" ht="16">
-      <c r="A27" s="56" t="s">
+      <c r="A27" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="56"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="56" t="s">
+      <c r="B27" s="47"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="G27" s="56"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="56"/>
-      <c r="J27" s="56"/>
-      <c r="K27" s="56"/>
-      <c r="L27" s="56"/>
-      <c r="M27" s="56"/>
-      <c r="N27" s="56"/>
-      <c r="O27" s="56"/>
-      <c r="P27" s="56"/>
-      <c r="Q27" s="56"/>
-      <c r="R27" s="56"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="47"/>
+      <c r="L27" s="47"/>
+      <c r="M27" s="47"/>
+      <c r="N27" s="47"/>
+      <c r="O27" s="47"/>
+      <c r="P27" s="47"/>
+      <c r="Q27" s="47"/>
+      <c r="R27" s="47"/>
     </row>
     <row r="28" spans="1:18" ht="16">
-      <c r="A28" s="57" t="s">
+      <c r="A28" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="57"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="58" t="s">
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="G28" s="58"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="58"/>
-      <c r="K28" s="58"/>
-      <c r="L28" s="58"/>
-      <c r="M28" s="58"/>
-      <c r="N28" s="58"/>
-      <c r="O28" s="58"/>
-      <c r="P28" s="58"/>
-      <c r="Q28" s="58"/>
-      <c r="R28" s="59"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="32"/>
+      <c r="N28" s="32"/>
+      <c r="O28" s="32"/>
+      <c r="P28" s="32"/>
+      <c r="Q28" s="32"/>
+      <c r="R28" s="33"/>
     </row>
     <row r="29" spans="1:18" ht="16">
-      <c r="A29" s="60" t="s">
+      <c r="A29" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="60"/>
-      <c r="C29" s="60"/>
-      <c r="D29" s="60"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="60" t="s">
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="G29" s="60"/>
-      <c r="H29" s="60"/>
-      <c r="I29" s="60"/>
-      <c r="J29" s="60"/>
-      <c r="K29" s="60"/>
-      <c r="L29" s="60"/>
-      <c r="M29" s="60"/>
-      <c r="N29" s="60"/>
-      <c r="O29" s="60"/>
-      <c r="P29" s="60"/>
-      <c r="Q29" s="60"/>
-      <c r="R29" s="60"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="34"/>
+      <c r="N29" s="34"/>
+      <c r="O29" s="34"/>
+      <c r="P29" s="34"/>
+      <c r="Q29" s="34"/>
+      <c r="R29" s="34"/>
     </row>
     <row r="30" spans="1:18" ht="30.75" customHeight="1">
-      <c r="A30" s="57" t="s">
+      <c r="A30" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="57"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57" t="s">
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="G30" s="57"/>
-      <c r="H30" s="57"/>
-      <c r="I30" s="57"/>
-      <c r="J30" s="57"/>
-      <c r="K30" s="57"/>
-      <c r="L30" s="57"/>
-      <c r="M30" s="57"/>
-      <c r="N30" s="57"/>
-      <c r="O30" s="57"/>
-      <c r="P30" s="57"/>
-      <c r="Q30" s="57"/>
-      <c r="R30" s="57"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="31"/>
+      <c r="Q30" s="31"/>
+      <c r="R30" s="31"/>
     </row>
     <row r="31" spans="1:18" ht="30.75" customHeight="1">
-      <c r="A31" s="65" t="s">
+      <c r="A31" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B31" s="58"/>
-      <c r="C31" s="58"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="73" t="s">
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="G31" s="57"/>
-      <c r="H31" s="57"/>
-      <c r="I31" s="57"/>
-      <c r="J31" s="57"/>
-      <c r="K31" s="57"/>
-      <c r="L31" s="57"/>
-      <c r="M31" s="57"/>
-      <c r="N31" s="57"/>
-      <c r="O31" s="57"/>
-      <c r="P31" s="57"/>
-      <c r="Q31" s="57"/>
-      <c r="R31" s="57"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31"/>
+      <c r="P31" s="31"/>
+      <c r="Q31" s="31"/>
+      <c r="R31" s="31"/>
     </row>
     <row r="32" spans="1:18" ht="33.75" customHeight="1">
-      <c r="A32" s="64" t="s">
+      <c r="A32" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="B32" s="64"/>
-      <c r="C32" s="64"/>
-      <c r="D32" s="64"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="64" t="s">
+      <c r="B32" s="38"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="G32" s="64"/>
-      <c r="H32" s="64"/>
-      <c r="I32" s="64"/>
-      <c r="J32" s="64"/>
-      <c r="K32" s="64"/>
-      <c r="L32" s="64"/>
-      <c r="M32" s="64"/>
-      <c r="N32" s="64"/>
-      <c r="O32" s="64"/>
-      <c r="P32" s="64"/>
-      <c r="Q32" s="64"/>
-      <c r="R32" s="64"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="38"/>
+      <c r="N32" s="38"/>
+      <c r="O32" s="38"/>
+      <c r="P32" s="38"/>
+      <c r="Q32" s="38"/>
+      <c r="R32" s="38"/>
     </row>
     <row r="33" spans="1:19" ht="19.5" customHeight="1">
-      <c r="A33" s="61" t="s">
+      <c r="A33" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="62"/>
-      <c r="C33" s="62"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="62"/>
-      <c r="J33" s="62"/>
-      <c r="K33" s="62"/>
-      <c r="L33" s="62"/>
-      <c r="M33" s="62"/>
-      <c r="N33" s="62"/>
-      <c r="O33" s="62"/>
-      <c r="P33" s="62"/>
-      <c r="Q33" s="62"/>
-      <c r="R33" s="63"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="36"/>
+      <c r="N33" s="36"/>
+      <c r="O33" s="36"/>
+      <c r="P33" s="36"/>
+      <c r="Q33" s="36"/>
+      <c r="R33" s="37"/>
     </row>
     <row r="34" spans="1:19" ht="19.5" customHeight="1">
       <c r="A34" s="17"/>
@@ -2658,6 +2687,16 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A1:R2"/>
+    <mergeCell ref="A8:R8"/>
+    <mergeCell ref="A4:R4"/>
+    <mergeCell ref="A5:R6"/>
+    <mergeCell ref="A9:R23"/>
+    <mergeCell ref="A25:R25"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="F26:R26"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="F27:R27"/>
     <mergeCell ref="A28:E28"/>
     <mergeCell ref="F28:R28"/>
     <mergeCell ref="F29:R29"/>
@@ -2669,16 +2708,6 @@
     <mergeCell ref="F32:R32"/>
     <mergeCell ref="A31:E31"/>
     <mergeCell ref="F31:R31"/>
-    <mergeCell ref="A25:R25"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="F26:R26"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="F27:R27"/>
-    <mergeCell ref="A1:R2"/>
-    <mergeCell ref="A8:R8"/>
-    <mergeCell ref="A4:R4"/>
-    <mergeCell ref="A5:R6"/>
-    <mergeCell ref="A9:R23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2692,7 +2721,7 @@
   <dimension ref="A1:F373"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="144" zoomScaleNormal="144" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -2700,7 +2729,7 @@
     <col min="1" max="1" width="15.5" style="7" customWidth="1"/>
     <col min="2" max="2" width="13.6640625" style="7" customWidth="1"/>
     <col min="3" max="3" width="39.83203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="60.83203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="69.6640625" style="4" customWidth="1"/>
     <col min="5" max="5" width="53.1640625" style="4" customWidth="1"/>
     <col min="6" max="6" width="63.5" style="4" customWidth="1"/>
   </cols>
@@ -2726,20 +2755,20 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="62" customHeight="1">
-      <c r="A2" s="66" cm="1">
+      <c r="A2" s="23" cm="1">
         <f t="array" aca="1" ref="A2" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v>1</v>
       </c>
-      <c r="B2" s="67">
+      <c r="B2" s="24">
         <v>16</v>
       </c>
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="72" t="s">
+      <c r="D2" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="69" t="s">
+      <c r="E2" s="26" t="s">
         <v>26</v>
       </c>
       <c r="F2" s="4" t="s">
@@ -2754,26 +2783,39 @@
       <c r="B3" s="11">
         <v>5</v>
       </c>
-      <c r="C3" s="71" t="s">
+      <c r="C3" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="72" t="s">
+      <c r="D3" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="74" t="s">
+      <c r="E3" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="68" t="s">
+      <c r="F3" s="25" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="11" t="str" cm="1">
+    <row r="4" spans="1:6" ht="51">
+      <c r="A4" s="11" cm="1">
         <f t="array" aca="1" ref="A4" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
-        <v/>
-      </c>
-      <c r="B4" s="11"/>
-      <c r="D4" s="10"/>
+        <v>3</v>
+      </c>
+      <c r="B4" s="11">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="76" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="11" t="str" cm="1">
@@ -5385,15 +5427,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DE05BE041A8DA14BBAEDDD6861041DE4" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c9c318af9de639ec61de2191501cbc05">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7905e2ae-5b6b-4412-a0c1-c9990e3e5828" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="22bc22c76caa74a16ad2ae88434fba8b" ns2:_="">
     <xsd:import namespace="7905e2ae-5b6b-4412-a0c1-c9990e3e5828"/>
@@ -5539,6 +5572,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -5546,14 +5588,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B4AB300-1AD8-4206-8442-7A9566BB2153}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECAB4748-A584-473C-8F10-3C6A475AC320}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5571,6 +5605,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B4AB300-1AD8-4206-8442-7A9566BB2153}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BFFBC263-7940-428F-B07F-40541512810A}">
   <ds:schemaRefs>

--- a/trackers/Dataset Tracker - Cleaned.xlsx
+++ b/trackers/Dataset Tracker - Cleaned.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gurdeep/Documents/tb2/DSMP/G32-Butterfly-Data/trackers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8981315-1C4B-1D4B-B12B-1D5E793ED398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAE8C52E-1780-C84E-8929-F87A05599AE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="3480" windowWidth="51200" windowHeight="28800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t>README</t>
   </si>
@@ -170,6 +170,18 @@
   </si>
   <si>
     <t>notebooks/preprocessing/Preprocessing - SORN Vehicles by postcode district and body type.ipynb</t>
+  </si>
+  <si>
+    <t>Weather Data</t>
+  </si>
+  <si>
+    <t>notebooks/preprocessing/Preprocessing - Bristol Weather Airport Data.ipynb</t>
+  </si>
+  <si>
+    <t>DSMP/Datasets/Cleaned/Weather Dataset/Open Data Bristol/meteorological_data_bristol_lulsgate_airport.csv</t>
+  </si>
+  <si>
+    <t>Filled missing with ffil method. Less than 1 % of values were null. All unit columns hold units for corresponding columns</t>
   </si>
 </sst>
 </file>
@@ -661,7 +673,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -689,9 +701,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1217,46 +1226,46 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="50"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="49"/>
     </row>
     <row r="2" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A2" s="51"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="53"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="52"/>
     </row>
     <row r="3" spans="1:18" ht="18.75" customHeight="1">
       <c r="A3" s="1"/>
@@ -1279,68 +1288,68 @@
       <c r="R3" s="1"/>
     </row>
     <row r="4" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="58"/>
-      <c r="Q4" s="58"/>
-      <c r="R4" s="59"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="58"/>
     </row>
     <row r="5" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="61"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="61"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="62"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="60"/>
+      <c r="N5" s="60"/>
+      <c r="O5" s="60"/>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="60"/>
+      <c r="R5" s="61"/>
     </row>
     <row r="6" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A6" s="63"/>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
-      <c r="N6" s="64"/>
-      <c r="O6" s="64"/>
-      <c r="P6" s="64"/>
-      <c r="Q6" s="64"/>
-      <c r="R6" s="65"/>
+      <c r="A6" s="62"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="63"/>
+      <c r="M6" s="63"/>
+      <c r="N6" s="63"/>
+      <c r="O6" s="63"/>
+      <c r="P6" s="63"/>
+      <c r="Q6" s="63"/>
+      <c r="R6" s="64"/>
     </row>
     <row r="7" spans="1:18" ht="18.75" customHeight="1">
       <c r="A7" s="2"/>
@@ -1363,328 +1372,328 @@
       <c r="R7" s="2"/>
     </row>
     <row r="8" spans="1:18" ht="23.25" customHeight="1">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="55"/>
-      <c r="M8" s="55"/>
-      <c r="N8" s="55"/>
-      <c r="O8" s="55"/>
-      <c r="P8" s="55"/>
-      <c r="Q8" s="55"/>
-      <c r="R8" s="56"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="54"/>
+      <c r="R8" s="55"/>
     </row>
     <row r="9" spans="1:18" ht="15" customHeight="1">
-      <c r="A9" s="66" t="s">
+      <c r="A9" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="67"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="67"/>
-      <c r="K9" s="67"/>
-      <c r="L9" s="67"/>
-      <c r="M9" s="67"/>
-      <c r="N9" s="67"/>
-      <c r="O9" s="67"/>
-      <c r="P9" s="67"/>
-      <c r="Q9" s="67"/>
-      <c r="R9" s="68"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="66"/>
+      <c r="N9" s="66"/>
+      <c r="O9" s="66"/>
+      <c r="P9" s="66"/>
+      <c r="Q9" s="66"/>
+      <c r="R9" s="67"/>
     </row>
     <row r="10" spans="1:18" ht="15" customHeight="1">
-      <c r="A10" s="69"/>
-      <c r="B10" s="70"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="70"/>
-      <c r="K10" s="70"/>
-      <c r="L10" s="70"/>
-      <c r="M10" s="70"/>
-      <c r="N10" s="70"/>
-      <c r="O10" s="70"/>
-      <c r="P10" s="70"/>
-      <c r="Q10" s="70"/>
-      <c r="R10" s="71"/>
+      <c r="A10" s="68"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="69"/>
+      <c r="M10" s="69"/>
+      <c r="N10" s="69"/>
+      <c r="O10" s="69"/>
+      <c r="P10" s="69"/>
+      <c r="Q10" s="69"/>
+      <c r="R10" s="70"/>
     </row>
     <row r="11" spans="1:18" ht="15" customHeight="1">
-      <c r="A11" s="69"/>
-      <c r="B11" s="70"/>
-      <c r="C11" s="70"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="70"/>
-      <c r="K11" s="70"/>
-      <c r="L11" s="70"/>
-      <c r="M11" s="70"/>
-      <c r="N11" s="70"/>
-      <c r="O11" s="70"/>
-      <c r="P11" s="70"/>
-      <c r="Q11" s="70"/>
-      <c r="R11" s="71"/>
+      <c r="A11" s="68"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="69"/>
+      <c r="L11" s="69"/>
+      <c r="M11" s="69"/>
+      <c r="N11" s="69"/>
+      <c r="O11" s="69"/>
+      <c r="P11" s="69"/>
+      <c r="Q11" s="69"/>
+      <c r="R11" s="70"/>
     </row>
     <row r="12" spans="1:18" ht="15" customHeight="1">
-      <c r="A12" s="69"/>
-      <c r="B12" s="70"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="70"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="70"/>
-      <c r="N12" s="70"/>
-      <c r="O12" s="70"/>
-      <c r="P12" s="70"/>
-      <c r="Q12" s="70"/>
-      <c r="R12" s="71"/>
+      <c r="A12" s="68"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="69"/>
+      <c r="O12" s="69"/>
+      <c r="P12" s="69"/>
+      <c r="Q12" s="69"/>
+      <c r="R12" s="70"/>
     </row>
     <row r="13" spans="1:18" ht="15" customHeight="1">
-      <c r="A13" s="69"/>
-      <c r="B13" s="70"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="70"/>
-      <c r="L13" s="70"/>
-      <c r="M13" s="70"/>
-      <c r="N13" s="70"/>
-      <c r="O13" s="70"/>
-      <c r="P13" s="70"/>
-      <c r="Q13" s="70"/>
-      <c r="R13" s="71"/>
+      <c r="A13" s="68"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="69"/>
+      <c r="M13" s="69"/>
+      <c r="N13" s="69"/>
+      <c r="O13" s="69"/>
+      <c r="P13" s="69"/>
+      <c r="Q13" s="69"/>
+      <c r="R13" s="70"/>
     </row>
     <row r="14" spans="1:18" ht="15" customHeight="1">
-      <c r="A14" s="69"/>
-      <c r="B14" s="70"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="70"/>
-      <c r="K14" s="70"/>
-      <c r="L14" s="70"/>
-      <c r="M14" s="70"/>
-      <c r="N14" s="70"/>
-      <c r="O14" s="70"/>
-      <c r="P14" s="70"/>
-      <c r="Q14" s="70"/>
-      <c r="R14" s="71"/>
+      <c r="A14" s="68"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="69"/>
+      <c r="L14" s="69"/>
+      <c r="M14" s="69"/>
+      <c r="N14" s="69"/>
+      <c r="O14" s="69"/>
+      <c r="P14" s="69"/>
+      <c r="Q14" s="69"/>
+      <c r="R14" s="70"/>
     </row>
     <row r="15" spans="1:18" ht="15" customHeight="1">
-      <c r="A15" s="69"/>
-      <c r="B15" s="70"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="70"/>
-      <c r="K15" s="70"/>
-      <c r="L15" s="70"/>
-      <c r="M15" s="70"/>
-      <c r="N15" s="70"/>
-      <c r="O15" s="70"/>
-      <c r="P15" s="70"/>
-      <c r="Q15" s="70"/>
-      <c r="R15" s="71"/>
+      <c r="A15" s="68"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="69"/>
+      <c r="M15" s="69"/>
+      <c r="N15" s="69"/>
+      <c r="O15" s="69"/>
+      <c r="P15" s="69"/>
+      <c r="Q15" s="69"/>
+      <c r="R15" s="70"/>
     </row>
     <row r="16" spans="1:18" ht="15" customHeight="1">
-      <c r="A16" s="69"/>
-      <c r="B16" s="70"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="70"/>
-      <c r="K16" s="70"/>
-      <c r="L16" s="70"/>
-      <c r="M16" s="70"/>
-      <c r="N16" s="70"/>
-      <c r="O16" s="70"/>
-      <c r="P16" s="70"/>
-      <c r="Q16" s="70"/>
-      <c r="R16" s="71"/>
+      <c r="A16" s="68"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="69"/>
+      <c r="K16" s="69"/>
+      <c r="L16" s="69"/>
+      <c r="M16" s="69"/>
+      <c r="N16" s="69"/>
+      <c r="O16" s="69"/>
+      <c r="P16" s="69"/>
+      <c r="Q16" s="69"/>
+      <c r="R16" s="70"/>
     </row>
     <row r="17" spans="1:18" ht="15" customHeight="1">
-      <c r="A17" s="69"/>
-      <c r="B17" s="70"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="70"/>
-      <c r="J17" s="70"/>
-      <c r="K17" s="70"/>
-      <c r="L17" s="70"/>
-      <c r="M17" s="70"/>
-      <c r="N17" s="70"/>
-      <c r="O17" s="70"/>
-      <c r="P17" s="70"/>
-      <c r="Q17" s="70"/>
-      <c r="R17" s="71"/>
+      <c r="A17" s="68"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="69"/>
+      <c r="L17" s="69"/>
+      <c r="M17" s="69"/>
+      <c r="N17" s="69"/>
+      <c r="O17" s="69"/>
+      <c r="P17" s="69"/>
+      <c r="Q17" s="69"/>
+      <c r="R17" s="70"/>
     </row>
     <row r="18" spans="1:18" ht="15" customHeight="1">
-      <c r="A18" s="69"/>
-      <c r="B18" s="70"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="70"/>
-      <c r="K18" s="70"/>
-      <c r="L18" s="70"/>
-      <c r="M18" s="70"/>
-      <c r="N18" s="70"/>
-      <c r="O18" s="70"/>
-      <c r="P18" s="70"/>
-      <c r="Q18" s="70"/>
-      <c r="R18" s="71"/>
+      <c r="A18" s="68"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="69"/>
+      <c r="M18" s="69"/>
+      <c r="N18" s="69"/>
+      <c r="O18" s="69"/>
+      <c r="P18" s="69"/>
+      <c r="Q18" s="69"/>
+      <c r="R18" s="70"/>
     </row>
     <row r="19" spans="1:18" ht="15" customHeight="1">
-      <c r="A19" s="69"/>
-      <c r="B19" s="70"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="70"/>
-      <c r="K19" s="70"/>
-      <c r="L19" s="70"/>
-      <c r="M19" s="70"/>
-      <c r="N19" s="70"/>
-      <c r="O19" s="70"/>
-      <c r="P19" s="70"/>
-      <c r="Q19" s="70"/>
-      <c r="R19" s="71"/>
+      <c r="A19" s="68"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="69"/>
+      <c r="M19" s="69"/>
+      <c r="N19" s="69"/>
+      <c r="O19" s="69"/>
+      <c r="P19" s="69"/>
+      <c r="Q19" s="69"/>
+      <c r="R19" s="70"/>
     </row>
     <row r="20" spans="1:18" ht="15" customHeight="1">
-      <c r="A20" s="69"/>
-      <c r="B20" s="70"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="70"/>
-      <c r="J20" s="70"/>
-      <c r="K20" s="70"/>
-      <c r="L20" s="70"/>
-      <c r="M20" s="70"/>
-      <c r="N20" s="70"/>
-      <c r="O20" s="70"/>
-      <c r="P20" s="70"/>
-      <c r="Q20" s="70"/>
-      <c r="R20" s="71"/>
+      <c r="A20" s="68"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="69"/>
+      <c r="J20" s="69"/>
+      <c r="K20" s="69"/>
+      <c r="L20" s="69"/>
+      <c r="M20" s="69"/>
+      <c r="N20" s="69"/>
+      <c r="O20" s="69"/>
+      <c r="P20" s="69"/>
+      <c r="Q20" s="69"/>
+      <c r="R20" s="70"/>
     </row>
     <row r="21" spans="1:18" ht="15" customHeight="1">
-      <c r="A21" s="69"/>
-      <c r="B21" s="70"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70"/>
-      <c r="I21" s="70"/>
-      <c r="J21" s="70"/>
-      <c r="K21" s="70"/>
-      <c r="L21" s="70"/>
-      <c r="M21" s="70"/>
-      <c r="N21" s="70"/>
-      <c r="O21" s="70"/>
-      <c r="P21" s="70"/>
-      <c r="Q21" s="70"/>
-      <c r="R21" s="71"/>
+      <c r="A21" s="68"/>
+      <c r="B21" s="69"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="69"/>
+      <c r="J21" s="69"/>
+      <c r="K21" s="69"/>
+      <c r="L21" s="69"/>
+      <c r="M21" s="69"/>
+      <c r="N21" s="69"/>
+      <c r="O21" s="69"/>
+      <c r="P21" s="69"/>
+      <c r="Q21" s="69"/>
+      <c r="R21" s="70"/>
     </row>
     <row r="22" spans="1:18">
-      <c r="A22" s="69"/>
-      <c r="B22" s="70"/>
-      <c r="C22" s="70"/>
-      <c r="D22" s="70"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="70"/>
-      <c r="H22" s="70"/>
-      <c r="I22" s="70"/>
-      <c r="J22" s="70"/>
-      <c r="K22" s="70"/>
-      <c r="L22" s="70"/>
-      <c r="M22" s="70"/>
-      <c r="N22" s="70"/>
-      <c r="O22" s="70"/>
-      <c r="P22" s="70"/>
-      <c r="Q22" s="70"/>
-      <c r="R22" s="71"/>
+      <c r="A22" s="68"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="69"/>
+      <c r="H22" s="69"/>
+      <c r="I22" s="69"/>
+      <c r="J22" s="69"/>
+      <c r="K22" s="69"/>
+      <c r="L22" s="69"/>
+      <c r="M22" s="69"/>
+      <c r="N22" s="69"/>
+      <c r="O22" s="69"/>
+      <c r="P22" s="69"/>
+      <c r="Q22" s="69"/>
+      <c r="R22" s="70"/>
     </row>
     <row r="23" spans="1:18">
-      <c r="A23" s="72"/>
-      <c r="B23" s="73"/>
-      <c r="C23" s="73"/>
-      <c r="D23" s="73"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="73"/>
-      <c r="H23" s="73"/>
-      <c r="I23" s="73"/>
-      <c r="J23" s="73"/>
-      <c r="K23" s="73"/>
-      <c r="L23" s="73"/>
-      <c r="M23" s="73"/>
-      <c r="N23" s="73"/>
-      <c r="O23" s="73"/>
-      <c r="P23" s="73"/>
-      <c r="Q23" s="73"/>
-      <c r="R23" s="74"/>
+      <c r="A23" s="71"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="72"/>
+      <c r="J23" s="72"/>
+      <c r="K23" s="72"/>
+      <c r="L23" s="72"/>
+      <c r="M23" s="72"/>
+      <c r="N23" s="72"/>
+      <c r="O23" s="72"/>
+      <c r="P23" s="72"/>
+      <c r="Q23" s="72"/>
+      <c r="R23" s="73"/>
     </row>
     <row r="24" spans="1:18" ht="20.25" customHeight="1">
       <c r="A24" s="2"/>
@@ -1707,363 +1716,363 @@
       <c r="R24" s="2"/>
     </row>
     <row r="25" spans="1:18" ht="20">
-      <c r="A25" s="41" t="s">
+      <c r="A25" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="42"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="42"/>
-      <c r="N25" s="42"/>
-      <c r="O25" s="42"/>
-      <c r="P25" s="42"/>
-      <c r="Q25" s="42"/>
-      <c r="R25" s="43"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="41"/>
+      <c r="P25" s="41"/>
+      <c r="Q25" s="41"/>
+      <c r="R25" s="42"/>
     </row>
     <row r="26" spans="1:18" ht="18">
-      <c r="A26" s="44" t="s">
+      <c r="A26" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="45"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="45" t="s">
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="45"/>
-      <c r="L26" s="45"/>
-      <c r="M26" s="45"/>
-      <c r="N26" s="45"/>
-      <c r="O26" s="45"/>
-      <c r="P26" s="45"/>
-      <c r="Q26" s="45"/>
-      <c r="R26" s="46"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="44"/>
+      <c r="N26" s="44"/>
+      <c r="O26" s="44"/>
+      <c r="P26" s="44"/>
+      <c r="Q26" s="44"/>
+      <c r="R26" s="45"/>
     </row>
     <row r="27" spans="1:18" ht="16">
-      <c r="A27" s="47" t="s">
+      <c r="A27" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="47"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47" t="s">
+      <c r="B27" s="46"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="G27" s="47"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="47"/>
-      <c r="M27" s="47"/>
-      <c r="N27" s="47"/>
-      <c r="O27" s="47"/>
-      <c r="P27" s="47"/>
-      <c r="Q27" s="47"/>
-      <c r="R27" s="47"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="46"/>
+      <c r="O27" s="46"/>
+      <c r="P27" s="46"/>
+      <c r="Q27" s="46"/>
+      <c r="R27" s="46"/>
     </row>
     <row r="28" spans="1:18" ht="16">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="32" t="s">
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="32"/>
-      <c r="M28" s="32"/>
-      <c r="N28" s="32"/>
-      <c r="O28" s="32"/>
-      <c r="P28" s="32"/>
-      <c r="Q28" s="32"/>
-      <c r="R28" s="33"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="31"/>
+      <c r="P28" s="31"/>
+      <c r="Q28" s="31"/>
+      <c r="R28" s="32"/>
     </row>
     <row r="29" spans="1:18" ht="16">
-      <c r="A29" s="34" t="s">
+      <c r="A29" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34" t="s">
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="34"/>
-      <c r="M29" s="34"/>
-      <c r="N29" s="34"/>
-      <c r="O29" s="34"/>
-      <c r="P29" s="34"/>
-      <c r="Q29" s="34"/>
-      <c r="R29" s="34"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="33"/>
+      <c r="M29" s="33"/>
+      <c r="N29" s="33"/>
+      <c r="O29" s="33"/>
+      <c r="P29" s="33"/>
+      <c r="Q29" s="33"/>
+      <c r="R29" s="33"/>
     </row>
     <row r="30" spans="1:18" ht="30.75" customHeight="1">
-      <c r="A30" s="31" t="s">
+      <c r="A30" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31" t="s">
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="31"/>
-      <c r="N30" s="31"/>
-      <c r="O30" s="31"/>
-      <c r="P30" s="31"/>
-      <c r="Q30" s="31"/>
-      <c r="R30" s="31"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="30"/>
+      <c r="N30" s="30"/>
+      <c r="O30" s="30"/>
+      <c r="P30" s="30"/>
+      <c r="Q30" s="30"/>
+      <c r="R30" s="30"/>
     </row>
     <row r="31" spans="1:18" ht="30.75" customHeight="1">
-      <c r="A31" s="39" t="s">
+      <c r="A31" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="40" t="s">
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="31"/>
-      <c r="J31" s="31"/>
-      <c r="K31" s="31"/>
-      <c r="L31" s="31"/>
-      <c r="M31" s="31"/>
-      <c r="N31" s="31"/>
-      <c r="O31" s="31"/>
-      <c r="P31" s="31"/>
-      <c r="Q31" s="31"/>
-      <c r="R31" s="31"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="30"/>
+      <c r="O31" s="30"/>
+      <c r="P31" s="30"/>
+      <c r="Q31" s="30"/>
+      <c r="R31" s="30"/>
     </row>
     <row r="32" spans="1:18" ht="33.75" customHeight="1">
-      <c r="A32" s="38" t="s">
+      <c r="A32" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B32" s="38"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38" t="s">
+      <c r="B32" s="37"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="38"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="38"/>
-      <c r="M32" s="38"/>
-      <c r="N32" s="38"/>
-      <c r="O32" s="38"/>
-      <c r="P32" s="38"/>
-      <c r="Q32" s="38"/>
-      <c r="R32" s="38"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="37"/>
+      <c r="N32" s="37"/>
+      <c r="O32" s="37"/>
+      <c r="P32" s="37"/>
+      <c r="Q32" s="37"/>
+      <c r="R32" s="37"/>
     </row>
     <row r="33" spans="1:19" ht="19.5" customHeight="1">
-      <c r="A33" s="35" t="s">
+      <c r="A33" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="36"/>
-      <c r="L33" s="36"/>
-      <c r="M33" s="36"/>
-      <c r="N33" s="36"/>
-      <c r="O33" s="36"/>
-      <c r="P33" s="36"/>
-      <c r="Q33" s="36"/>
-      <c r="R33" s="37"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="35"/>
+      <c r="M33" s="35"/>
+      <c r="N33" s="35"/>
+      <c r="O33" s="35"/>
+      <c r="P33" s="35"/>
+      <c r="Q33" s="35"/>
+      <c r="R33" s="36"/>
     </row>
     <row r="34" spans="1:19" ht="19.5" customHeight="1">
-      <c r="A34" s="17"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
-      <c r="R34" s="17"/>
-      <c r="S34" s="16"/>
+      <c r="A34" s="16"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="16"/>
+      <c r="Q34" s="16"/>
+      <c r="R34" s="16"/>
+      <c r="S34" s="15"/>
     </row>
     <row r="35" spans="1:19" ht="20">
-      <c r="A35" s="18"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="18"/>
-      <c r="L35" s="18"/>
-      <c r="M35" s="18"/>
-      <c r="N35" s="18"/>
-      <c r="O35" s="18"/>
-      <c r="P35" s="18"/>
-      <c r="Q35" s="18"/>
-      <c r="R35" s="18"/>
-      <c r="S35" s="16"/>
+      <c r="A35" s="17"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
+      <c r="R35" s="17"/>
+      <c r="S35" s="15"/>
     </row>
     <row r="36" spans="1:19" ht="18">
-      <c r="A36" s="19"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="19"/>
-      <c r="M36" s="19"/>
-      <c r="N36" s="19"/>
-      <c r="O36" s="19"/>
-      <c r="P36" s="19"/>
-      <c r="Q36" s="19"/>
-      <c r="R36" s="19"/>
-      <c r="S36" s="16"/>
+      <c r="A36" s="18"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="18"/>
+      <c r="O36" s="18"/>
+      <c r="P36" s="18"/>
+      <c r="Q36" s="18"/>
+      <c r="R36" s="18"/>
+      <c r="S36" s="15"/>
     </row>
     <row r="37" spans="1:19" ht="16">
-      <c r="A37" s="20"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="20"/>
-      <c r="L37" s="20"/>
-      <c r="M37" s="20"/>
-      <c r="N37" s="20"/>
-      <c r="O37" s="20"/>
-      <c r="P37" s="20"/>
-      <c r="Q37" s="20"/>
-      <c r="R37" s="20"/>
-      <c r="S37" s="16"/>
+      <c r="A37" s="19"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="19"/>
+      <c r="P37" s="19"/>
+      <c r="Q37" s="19"/>
+      <c r="R37" s="19"/>
+      <c r="S37" s="15"/>
     </row>
     <row r="38" spans="1:19" ht="16">
-      <c r="A38" s="20"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="20"/>
-      <c r="L38" s="20"/>
-      <c r="M38" s="20"/>
-      <c r="N38" s="20"/>
-      <c r="O38" s="20"/>
-      <c r="P38" s="20"/>
-      <c r="Q38" s="20"/>
-      <c r="R38" s="20"/>
-      <c r="S38" s="16"/>
+      <c r="A38" s="19"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="19"/>
+      <c r="O38" s="19"/>
+      <c r="P38" s="19"/>
+      <c r="Q38" s="19"/>
+      <c r="R38" s="19"/>
+      <c r="S38" s="15"/>
     </row>
     <row r="39" spans="1:19" ht="16">
-      <c r="A39" s="20"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="20"/>
-      <c r="L39" s="20"/>
-      <c r="M39" s="20"/>
-      <c r="N39" s="20"/>
-      <c r="O39" s="20"/>
-      <c r="P39" s="20"/>
-      <c r="Q39" s="20"/>
-      <c r="R39" s="20"/>
-      <c r="S39" s="16"/>
+      <c r="A39" s="19"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="19"/>
+      <c r="O39" s="19"/>
+      <c r="P39" s="19"/>
+      <c r="Q39" s="19"/>
+      <c r="R39" s="19"/>
+      <c r="S39" s="15"/>
     </row>
     <row r="40" spans="1:19" ht="16">
-      <c r="A40" s="21"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="21"/>
-      <c r="J40" s="21"/>
-      <c r="K40" s="21"/>
-      <c r="L40" s="21"/>
-      <c r="M40" s="21"/>
-      <c r="N40" s="21"/>
-      <c r="O40" s="21"/>
-      <c r="P40" s="21"/>
-      <c r="Q40" s="21"/>
-      <c r="R40" s="21"/>
-      <c r="S40" s="16"/>
+      <c r="A40" s="20"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="20"/>
+      <c r="N40" s="20"/>
+      <c r="O40" s="20"/>
+      <c r="P40" s="20"/>
+      <c r="Q40" s="20"/>
+      <c r="R40" s="20"/>
+      <c r="S40" s="15"/>
     </row>
     <row r="41" spans="1:19" ht="16">
       <c r="A41" s="6"/>
@@ -2721,7 +2730,7 @@
   <dimension ref="A1:F373"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="144" zoomScaleNormal="144" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -2755,20 +2764,20 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="62" customHeight="1">
-      <c r="A2" s="23" cm="1">
+      <c r="A2" s="22" cm="1">
         <f t="array" aca="1" ref="A2" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v>1</v>
       </c>
-      <c r="B2" s="24">
+      <c r="B2" s="23">
         <v>16</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="25" t="s">
         <v>26</v>
       </c>
       <c r="F2" s="4" t="s">
@@ -2783,16 +2792,16 @@
       <c r="B3" s="11">
         <v>5</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="24" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2807,24 +2816,36 @@
       <c r="C4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="75" t="s">
+      <c r="D4" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="76" t="s">
+      <c r="E4" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="24" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="11" t="str" cm="1">
+    <row r="5" spans="1:6" ht="34">
+      <c r="A5" s="11" cm="1">
         <f t="array" aca="1" ref="A5" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
-        <v/>
-      </c>
-      <c r="B5" s="11"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="11">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="74" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="11" t="str" cm="1">
@@ -2832,8 +2853,8 @@
         <v/>
       </c>
       <c r="B6" s="11"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="11" t="str" cm="1">
@@ -2841,8 +2862,8 @@
         <v/>
       </c>
       <c r="B7" s="11"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="11" t="str" cm="1">
@@ -2850,8 +2871,8 @@
         <v/>
       </c>
       <c r="B8" s="11"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="11" t="str" cm="1">
@@ -2908,8 +2929,8 @@
         <v/>
       </c>
       <c r="B16" s="11"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="11" t="str" cm="1">
@@ -2917,8 +2938,8 @@
         <v/>
       </c>
       <c r="B17" s="11"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
     </row>
     <row r="18" spans="1:5" ht="58.5" customHeight="1">
       <c r="A18" s="11" t="str" cm="1">
@@ -2933,7 +2954,7 @@
         <v/>
       </c>
       <c r="B19" s="11"/>
-      <c r="C19" s="22"/>
+      <c r="C19" s="21"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="11" t="str" cm="1">
@@ -2969,8 +2990,8 @@
         <v/>
       </c>
       <c r="B24" s="11"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="11" t="str" cm="1">
@@ -2978,8 +2999,8 @@
         <v/>
       </c>
       <c r="B25" s="11"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="11" t="str" cm="1">
@@ -3259,7 +3280,7 @@
         <f t="array" aca="1" ref="A65" ca="1">IF(ISBLANK(INDIRECT("B"&amp;ROW())),"",IF(ISNUMBER(INDIRECT("A" &amp; ROW() - 1)), INDIRECT("A" &amp; ROW() - 1) + 1, 1))</f>
         <v/>
       </c>
-      <c r="B65" s="15"/>
+      <c r="B65" s="14"/>
       <c r="C65" s="10"/>
       <c r="D65" s="10"/>
       <c r="E65" s="10"/>
